--- a/second-order/1875/January1875.xlsx
+++ b/second-order/1875/January1875.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26522"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ed/Documents/GitHub/weather-rescue/second-order/1875/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://metoffice.sharepoint.com/sites/metofficelibraryarchiveteam/NMLAProjects/Second Order Stations/In Progress/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E9ECD3C-DA8B-0E44-97F5-44C2CCEDDB11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="640" documentId="14_{095D3EB6-7C4E-4FB0-8180-2A640DC0EBE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D1B61107-E800-4792-BB4D-74A328177C6C}"/>
   <bookViews>
-    <workbookView xWindow="6880" yWindow="700" windowWidth="21600" windowHeight="11380" firstSheet="1" activeTab="2" xr2:uid="{F301734F-2AF4-4BAC-817B-B629B6303572}"/>
+    <workbookView xWindow="6870" yWindow="690" windowWidth="21600" windowHeight="11385" firstSheet="8" activeTab="8" xr2:uid="{F301734F-2AF4-4BAC-817B-B629B6303572}"/>
   </bookViews>
   <sheets>
     <sheet name="Hawes" sheetId="1" r:id="rId1"/>
@@ -35,6 +35,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -42,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1492" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1500" uniqueCount="60">
   <si>
     <t>Barometer</t>
   </si>
@@ -149,19 +151,10 @@
     <t>NW</t>
   </si>
   <si>
-    <t>~</t>
-  </si>
-  <si>
     <t>WNW</t>
   </si>
   <si>
     <t>Means</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mean of 30 Days only </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mean of 29 days only </t>
   </si>
   <si>
     <t>Air Temperature</t>
@@ -212,13 +205,7 @@
     <t>3-4</t>
   </si>
   <si>
-    <t>Note- Min.and Max.therms read at 9 a.m.</t>
-  </si>
-  <si>
     <t>Carmarthen</t>
-  </si>
-  <si>
-    <t>Mean of 30 days only</t>
   </si>
   <si>
     <t>Strathfield Turgiss</t>
@@ -246,7 +233,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -257,13 +244,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -459,7 +439,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -512,13 +492,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -526,12 +500,6 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -544,9 +512,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -893,59 +858,59 @@
   <dimension ref="A2:AA36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U35" sqref="U35"/>
+      <pane ySplit="3" topLeftCell="H29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="T36" sqref="T36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="20" width="8.6640625" style="1" customWidth="1"/>
-    <col min="21" max="21" width="10.6640625" style="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.1640625" style="1"/>
+    <col min="3" max="3" width="10.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="20" width="8.7109375" style="1" customWidth="1"/>
+    <col min="21" max="21" width="10.7109375" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="27"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="35" t="s">
+    <row r="2" spans="1:21" s="2" customFormat="1">
+      <c r="A2" s="23"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="36"/>
-      <c r="G2" s="37" t="s">
+      <c r="F2" s="31"/>
+      <c r="G2" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="33" t="s">
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="34"/>
-      <c r="M2" s="33" t="s">
+      <c r="L2" s="29"/>
+      <c r="M2" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="34"/>
-      <c r="O2" s="37" t="s">
+      <c r="N2" s="29"/>
+      <c r="O2" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="37"/>
-      <c r="Q2" s="37"/>
-      <c r="R2" s="38"/>
-      <c r="S2" s="33" t="s">
+      <c r="P2" s="32"/>
+      <c r="Q2" s="32"/>
+      <c r="R2" s="33"/>
+      <c r="S2" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="34"/>
+      <c r="T2" s="29"/>
       <c r="U2" s="10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" s="2" customFormat="1">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -1010,7 +975,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21">
       <c r="A4" s="5" t="s">
         <v>19</v>
       </c>
@@ -1029,7 +994,7 @@
       <c r="F4" s="6">
         <v>29.79</v>
       </c>
-      <c r="G4" s="19" t="s">
+      <c r="G4" s="18" t="s">
         <v>21</v>
       </c>
       <c r="H4" s="1" t="s">
@@ -1075,7 +1040,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21">
       <c r="A5" s="5" t="s">
         <v>19</v>
       </c>
@@ -1140,7 +1105,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21">
       <c r="A6" s="5" t="s">
         <v>19</v>
       </c>
@@ -1205,7 +1170,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21">
       <c r="A7" s="5" t="s">
         <v>19</v>
       </c>
@@ -1270,7 +1235,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21">
       <c r="A8" s="5" t="s">
         <v>19</v>
       </c>
@@ -1335,7 +1300,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21">
       <c r="A9" s="5" t="s">
         <v>19</v>
       </c>
@@ -1400,7 +1365,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21">
       <c r="A10" s="5" t="s">
         <v>19</v>
       </c>
@@ -1465,7 +1430,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21">
       <c r="A11" s="5" t="s">
         <v>19</v>
       </c>
@@ -1530,7 +1495,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:21">
       <c r="A12" s="5" t="s">
         <v>19</v>
       </c>
@@ -1595,7 +1560,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21">
       <c r="A13" s="5" t="s">
         <v>19</v>
       </c>
@@ -1660,7 +1625,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:21">
       <c r="A14" s="5" t="s">
         <v>19</v>
       </c>
@@ -1725,7 +1690,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21">
       <c r="A15" s="5" t="s">
         <v>19</v>
       </c>
@@ -1790,7 +1755,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21">
       <c r="A16" s="5" t="s">
         <v>19</v>
       </c>
@@ -1855,7 +1820,7 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:27">
       <c r="A17" s="5" t="s">
         <v>19</v>
       </c>
@@ -1920,7 +1885,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:27">
       <c r="A18" s="5" t="s">
         <v>19</v>
       </c>
@@ -1972,7 +1937,7 @@
       <c r="Q18" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="R18" s="21" t="s">
+      <c r="R18" s="19" t="s">
         <v>32</v>
       </c>
       <c r="S18" s="1">
@@ -1985,7 +1950,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:27">
       <c r="A19" s="5" t="s">
         <v>19</v>
       </c>
@@ -2050,7 +2015,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:27">
       <c r="A20" s="5" t="s">
         <v>19</v>
       </c>
@@ -2119,7 +2084,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:27">
       <c r="A21" s="5" t="s">
         <v>19</v>
       </c>
@@ -2171,7 +2136,7 @@
       <c r="Q21" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="R21" s="21" t="s">
+      <c r="R21" s="19" t="s">
         <v>32</v>
       </c>
       <c r="S21" s="1">
@@ -2180,11 +2145,11 @@
       <c r="T21" s="1">
         <v>10</v>
       </c>
-      <c r="U21" s="26">
+      <c r="U21" s="22">
         <v>1.79</v>
       </c>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:27">
       <c r="A22" s="5" t="s">
         <v>19</v>
       </c>
@@ -2230,13 +2195,13 @@
       <c r="O22" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="P22" s="19" t="s">
+      <c r="P22" s="18" t="s">
         <v>33</v>
       </c>
       <c r="Q22" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="R22" s="21" t="s">
+      <c r="R22" s="19" t="s">
         <v>33</v>
       </c>
       <c r="S22" s="1">
@@ -2249,7 +2214,7 @@
         <v>1.46</v>
       </c>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:27">
       <c r="A23" s="5" t="s">
         <v>19</v>
       </c>
@@ -2295,13 +2260,13 @@
       <c r="O23" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="P23" s="19" t="s">
+      <c r="P23" s="18" t="s">
         <v>32</v>
       </c>
       <c r="Q23" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="R23" s="21" t="s">
+      <c r="R23" s="19" t="s">
         <v>32</v>
       </c>
       <c r="S23" s="1">
@@ -2314,7 +2279,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:27">
       <c r="A24" s="5" t="s">
         <v>19</v>
       </c>
@@ -2379,7 +2344,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:27">
       <c r="A25" s="5" t="s">
         <v>19</v>
       </c>
@@ -2402,7 +2367,7 @@
         <v>31.3</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="I25" s="1">
         <v>26</v>
@@ -2444,7 +2409,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:27">
       <c r="A26" s="5" t="s">
         <v>19</v>
       </c>
@@ -2509,7 +2474,7 @@
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:27">
       <c r="A27" s="5" t="s">
         <v>19</v>
       </c>
@@ -2555,7 +2520,7 @@
       <c r="O27" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="P27" s="19" t="s">
+      <c r="P27" s="18" t="s">
         <v>32</v>
       </c>
       <c r="Q27" s="1" t="s">
@@ -2574,7 +2539,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:27">
       <c r="A28" s="5" t="s">
         <v>19</v>
       </c>
@@ -2618,7 +2583,7 @@
         <v>88</v>
       </c>
       <c r="O28" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P28" s="1">
         <v>2</v>
@@ -2639,7 +2604,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:27">
       <c r="A29" s="5" t="s">
         <v>19</v>
       </c>
@@ -2704,7 +2669,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:27">
       <c r="A30" s="5" t="s">
         <v>19</v>
       </c>
@@ -2756,7 +2721,7 @@
       <c r="Q30" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="R30" s="21" t="s">
+      <c r="R30" s="19" t="s">
         <v>32</v>
       </c>
       <c r="S30" s="1">
@@ -2769,7 +2734,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:27">
       <c r="A31" s="5" t="s">
         <v>19</v>
       </c>
@@ -2834,7 +2799,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:27">
       <c r="A32" s="5" t="s">
         <v>19</v>
       </c>
@@ -2869,7 +2834,7 @@
         <v>0.23200000000000001</v>
       </c>
       <c r="L32" s="6">
-        <v>0.20300000000000001</v>
+        <v>0.20200000000000001</v>
       </c>
       <c r="M32" s="1">
         <v>94</v>
@@ -2899,7 +2864,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:21">
       <c r="A33" s="5" t="s">
         <v>19</v>
       </c>
@@ -2964,7 +2929,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:21">
       <c r="A34" s="7" t="s">
         <v>19</v>
       </c>
@@ -3029,12 +2994,12 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:21">
       <c r="A35" s="14"/>
       <c r="B35" s="15"/>
       <c r="C35" s="15"/>
       <c r="D35" s="16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E35" s="15">
         <v>29.806000000000001</v>
@@ -3066,12 +3031,14 @@
       <c r="N35" s="16">
         <v>94.2</v>
       </c>
-      <c r="O35" s="14"/>
+      <c r="O35" s="14" t="s">
+        <v>21</v>
+      </c>
       <c r="P35" s="15">
         <v>1.9</v>
       </c>
-      <c r="Q35" s="15">
-        <v>1.9</v>
+      <c r="Q35" s="15" t="s">
+        <v>21</v>
       </c>
       <c r="R35" s="16">
         <v>1.9</v>
@@ -3082,36 +3049,12 @@
       <c r="T35" s="16">
         <v>8.6999999999999993</v>
       </c>
-      <c r="U35" s="30">
+      <c r="U35" s="25">
         <v>10.06</v>
       </c>
     </row>
-    <row r="36" spans="1:21" ht="48" x14ac:dyDescent="0.2">
-      <c r="F36" s="18"/>
-      <c r="G36" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="H36" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="K36" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="L36" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="M36" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="N36" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="P36" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q36" s="23" t="s">
-        <v>39</v>
-      </c>
+    <row r="36" spans="1:21">
+      <c r="G36" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -3133,59 +3076,59 @@
   <dimension ref="A2:U35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A42" sqref="A42"/>
+      <pane ySplit="3" topLeftCell="I30" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N38" sqref="N38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="20" width="8.6640625" style="1" customWidth="1"/>
-    <col min="21" max="21" width="10.6640625" style="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.1640625" style="1"/>
+    <col min="3" max="3" width="10.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="20" width="8.7109375" style="1" customWidth="1"/>
+    <col min="21" max="21" width="10.7109375" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="27"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="35" t="s">
+    <row r="2" spans="1:21" s="2" customFormat="1">
+      <c r="A2" s="23"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="36"/>
-      <c r="G2" s="37" t="s">
-        <v>40</v>
-      </c>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="33" t="s">
+      <c r="F2" s="31"/>
+      <c r="G2" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="34"/>
-      <c r="M2" s="33" t="s">
+      <c r="L2" s="29"/>
+      <c r="M2" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="34"/>
-      <c r="O2" s="37" t="s">
+      <c r="N2" s="29"/>
+      <c r="O2" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="37"/>
-      <c r="Q2" s="37"/>
-      <c r="R2" s="38"/>
-      <c r="S2" s="33" t="s">
+      <c r="P2" s="32"/>
+      <c r="Q2" s="32"/>
+      <c r="R2" s="33"/>
+      <c r="S2" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="34"/>
+      <c r="T2" s="29"/>
       <c r="U2" s="10" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" s="2" customFormat="1">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -3250,9 +3193,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21">
       <c r="A4" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B4" s="1">
         <v>1875</v>
@@ -3267,7 +3210,7 @@
         <v>30.225999999999999</v>
       </c>
       <c r="F4" s="6">
-        <v>28.850999999999999</v>
+        <v>29.850999999999999</v>
       </c>
       <c r="G4" s="1">
         <v>18.8</v>
@@ -3315,9 +3258,9 @@
         <v>0.248</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21">
       <c r="A5" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B5" s="1">
         <v>1875</v>
@@ -3329,7 +3272,7 @@
         <v>2</v>
       </c>
       <c r="E5" s="5">
-        <v>29.882999999999999</v>
+        <v>29.832999999999998</v>
       </c>
       <c r="F5" s="6">
         <v>29.917999999999999</v>
@@ -3380,9 +3323,9 @@
         <v>0.17599999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21">
       <c r="A6" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B6" s="1">
         <v>1875</v>
@@ -3445,9 +3388,9 @@
         <v>0.123</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21">
       <c r="A7" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B7" s="1">
         <v>1875</v>
@@ -3510,9 +3453,9 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21">
       <c r="A8" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B8" s="1">
         <v>1875</v>
@@ -3575,9 +3518,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21">
       <c r="A9" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B9" s="1">
         <v>1875</v>
@@ -3640,9 +3583,9 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21">
       <c r="A10" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B10" s="1">
         <v>1875</v>
@@ -3705,9 +3648,9 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21">
       <c r="A11" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B11" s="1">
         <v>1875</v>
@@ -3770,9 +3713,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:21">
       <c r="A12" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B12" s="1">
         <v>1875</v>
@@ -3835,9 +3778,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21">
       <c r="A13" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B13" s="1">
         <v>1875</v>
@@ -3852,7 +3795,7 @@
         <v>29.814</v>
       </c>
       <c r="F13" s="6">
-        <v>30.785</v>
+        <v>29.785</v>
       </c>
       <c r="G13" s="1">
         <v>36.5</v>
@@ -3900,9 +3843,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:21">
       <c r="A14" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B14" s="1">
         <v>1875</v>
@@ -3917,7 +3860,7 @@
         <v>29.818999999999999</v>
       </c>
       <c r="F14" s="6">
-        <v>30.884</v>
+        <v>29.884</v>
       </c>
       <c r="G14" s="1">
         <v>39.4</v>
@@ -3965,9 +3908,9 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21">
       <c r="A15" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B15" s="1">
         <v>1875</v>
@@ -4030,9 +3973,9 @@
         <v>7.8E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21">
       <c r="A16" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B16" s="1">
         <v>1875</v>
@@ -4095,9 +4038,9 @@
         <v>6.5000000000000002E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:21">
       <c r="A17" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B17" s="1">
         <v>1875</v>
@@ -4160,9 +4103,9 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:21">
       <c r="A18" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B18" s="1">
         <v>1875</v>
@@ -4225,9 +4168,9 @@
         <v>4.2999999999999997E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:21">
       <c r="A19" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B19" s="1">
         <v>1875</v>
@@ -4290,9 +4233,9 @@
         <v>0.17599999999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:21">
       <c r="A20" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B20" s="1">
         <v>1875</v>
@@ -4304,7 +4247,7 @@
         <v>17</v>
       </c>
       <c r="E20" s="5">
-        <v>20.632000000000001</v>
+        <v>29.632000000000001</v>
       </c>
       <c r="F20" s="6">
         <v>29.701000000000001</v>
@@ -4355,9 +4298,9 @@
         <v>0.14499999999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:21">
       <c r="A21" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B21" s="1">
         <v>1875</v>
@@ -4420,9 +4363,9 @@
         <v>0.14599999999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:21">
       <c r="A22" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B22" s="1">
         <v>1875</v>
@@ -4485,9 +4428,9 @@
         <v>5.5E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:21">
       <c r="A23" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B23" s="1">
         <v>1875</v>
@@ -4550,9 +4493,9 @@
         <v>2.7E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:21">
       <c r="A24" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B24" s="1">
         <v>1875</v>
@@ -4600,7 +4543,7 @@
         <v>2</v>
       </c>
       <c r="Q24" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="R24" s="6">
         <v>2</v>
@@ -4615,9 +4558,9 @@
         <v>3.5999999999999997E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:21">
       <c r="A25" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B25" s="1">
         <v>1875</v>
@@ -4629,7 +4572,7 @@
         <v>22</v>
       </c>
       <c r="E25" s="5">
-        <v>20.780999999999999</v>
+        <v>29.780999999999999</v>
       </c>
       <c r="F25" s="6">
         <v>29.957999999999998</v>
@@ -4680,9 +4623,9 @@
         <v>7.6999999999999999E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:21">
       <c r="A26" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B26" s="1">
         <v>1875</v>
@@ -4745,9 +4688,9 @@
         <v>0.20599999999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:21">
       <c r="A27" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B27" s="1">
         <v>1875</v>
@@ -4810,9 +4753,9 @@
         <v>0.26400000000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:21">
       <c r="A28" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B28" s="1">
         <v>1875</v>
@@ -4860,7 +4803,7 @@
         <v>5</v>
       </c>
       <c r="Q28" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="R28" s="6">
         <v>1</v>
@@ -4875,9 +4818,9 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:21">
       <c r="A29" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B29" s="1">
         <v>1875</v>
@@ -4919,7 +4862,7 @@
         <v>87</v>
       </c>
       <c r="O29" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="P29" s="1">
         <v>1</v>
@@ -4940,9 +4883,9 @@
         <v>6.2E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:21">
       <c r="A30" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B30" s="1">
         <v>1875</v>
@@ -5005,9 +4948,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:21">
       <c r="A31" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B31" s="1">
         <v>1875</v>
@@ -5070,9 +5013,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:21">
       <c r="A32" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B32" s="1">
         <v>1875</v>
@@ -5120,7 +5063,7 @@
         <v>1</v>
       </c>
       <c r="Q32" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="R32" s="6">
         <v>1</v>
@@ -5135,9 +5078,9 @@
         <v>9.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:21">
       <c r="A33" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B33" s="1">
         <v>1875</v>
@@ -5179,7 +5122,7 @@
         <v>89</v>
       </c>
       <c r="O33" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="P33" s="1">
         <v>1</v>
@@ -5200,9 +5143,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:21">
       <c r="A34" s="7" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B34" s="8">
         <v>1875</v>
@@ -5265,12 +5208,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:21">
       <c r="A35" s="14"/>
       <c r="B35" s="15"/>
       <c r="C35" s="15"/>
       <c r="D35" s="16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E35" s="15">
         <v>29.866</v>
@@ -5302,11 +5245,15 @@
       <c r="N35" s="16">
         <v>93.3</v>
       </c>
-      <c r="O35" s="14"/>
+      <c r="O35" s="14" t="s">
+        <v>21</v>
+      </c>
       <c r="P35" s="15">
         <v>2.9</v>
       </c>
-      <c r="Q35" s="15"/>
+      <c r="Q35" s="15" t="s">
+        <v>21</v>
+      </c>
       <c r="R35" s="16">
         <v>2.9</v>
       </c>
@@ -5314,7 +5261,7 @@
         <v>7.9</v>
       </c>
       <c r="T35" s="16">
-        <v>6</v>
+        <v>6.9</v>
       </c>
       <c r="U35" s="17">
         <v>2.1850000000000001</v>
@@ -5339,60 +5286,60 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A2:U35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F36" sqref="F36"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="3" topLeftCell="I28" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="U36" sqref="U36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="20" width="8.6640625" style="1" customWidth="1"/>
-    <col min="21" max="21" width="10.6640625" style="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.1640625" style="1"/>
+    <col min="3" max="3" width="10.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="20" width="8.7109375" style="1" customWidth="1"/>
+    <col min="21" max="21" width="10.7109375" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="27"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="35" t="s">
+    <row r="2" spans="1:21" s="2" customFormat="1">
+      <c r="A2" s="23"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="36"/>
-      <c r="G2" s="37" t="s">
-        <v>40</v>
-      </c>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="33" t="s">
+      <c r="F2" s="31"/>
+      <c r="G2" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="34"/>
-      <c r="M2" s="33" t="s">
+      <c r="L2" s="29"/>
+      <c r="M2" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="34"/>
-      <c r="O2" s="37" t="s">
+      <c r="N2" s="29"/>
+      <c r="O2" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="37"/>
-      <c r="Q2" s="37"/>
-      <c r="R2" s="38"/>
-      <c r="S2" s="33" t="s">
+      <c r="P2" s="32"/>
+      <c r="Q2" s="32"/>
+      <c r="R2" s="33"/>
+      <c r="S2" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="34"/>
+      <c r="T2" s="29"/>
       <c r="U2" s="10" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" s="2" customFormat="1">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -5457,9 +5404,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21">
       <c r="A4" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B4" s="1">
         <v>1875</v>
@@ -5522,9 +5469,9 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21">
       <c r="A5" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B5" s="1">
         <v>1875</v>
@@ -5566,7 +5513,7 @@
         <v>88</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P5" s="1">
         <v>2</v>
@@ -5587,9 +5534,9 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21">
       <c r="A6" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B6" s="1">
         <v>1875</v>
@@ -5637,7 +5584,7 @@
         <v>5</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="R6" s="6">
         <v>2</v>
@@ -5652,9 +5599,9 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21">
       <c r="A7" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B7" s="1">
         <v>1875</v>
@@ -5717,9 +5664,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21">
       <c r="A8" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B8" s="1">
         <v>1875</v>
@@ -5782,9 +5729,9 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21">
       <c r="A9" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B9" s="1">
         <v>1875</v>
@@ -5847,9 +5794,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21">
       <c r="A10" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B10" s="1">
         <v>1875</v>
@@ -5912,9 +5859,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21">
       <c r="A11" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B11" s="1">
         <v>1875</v>
@@ -5977,9 +5924,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:21">
       <c r="A12" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B12" s="1">
         <v>1875</v>
@@ -6042,9 +5989,9 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21">
       <c r="A13" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B13" s="1">
         <v>1875</v>
@@ -6107,9 +6054,9 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:21">
       <c r="A14" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B14" s="1">
         <v>1875</v>
@@ -6172,9 +6119,9 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21">
       <c r="A15" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B15" s="1">
         <v>1875</v>
@@ -6237,9 +6184,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21">
       <c r="A16" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B16" s="1">
         <v>1875</v>
@@ -6302,9 +6249,9 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:21">
       <c r="A17" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B17" s="1">
         <v>1875</v>
@@ -6367,9 +6314,9 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:21">
       <c r="A18" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B18" s="1">
         <v>1875</v>
@@ -6432,9 +6379,9 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:21">
       <c r="A19" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B19" s="1">
         <v>1875</v>
@@ -6497,9 +6444,9 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:21">
       <c r="A20" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B20" s="1">
         <v>1875</v>
@@ -6511,7 +6458,7 @@
         <v>17</v>
       </c>
       <c r="E20" s="5">
-        <v>20.67</v>
+        <v>29.67</v>
       </c>
       <c r="F20" s="6">
         <v>29.681000000000001</v>
@@ -6541,7 +6488,7 @@
         <v>97</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P20" s="1">
         <v>6</v>
@@ -6562,9 +6509,9 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:21">
       <c r="A21" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B21" s="1">
         <v>1875</v>
@@ -6624,12 +6571,12 @@
         <v>10</v>
       </c>
       <c r="U21" s="12">
-        <v>0.48</v>
-      </c>
-    </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
+        <v>0.45500000000000002</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21">
       <c r="A22" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B22" s="1">
         <v>1875</v>
@@ -6689,12 +6636,12 @@
         <v>10</v>
       </c>
       <c r="U22" s="12">
-        <v>0.45500000000000002</v>
-      </c>
-    </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
+        <v>9.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21">
       <c r="A23" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B23" s="1">
         <v>1875</v>
@@ -6757,9 +6704,9 @@
         <v>9.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:21">
       <c r="A24" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B24" s="1">
         <v>1875</v>
@@ -6801,7 +6748,7 @@
         <v>75</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P24" s="1">
         <v>8</v>
@@ -6822,9 +6769,9 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:21">
       <c r="A25" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B25" s="1">
         <v>1875</v>
@@ -6866,13 +6813,13 @@
         <v>78</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="P25" s="1">
         <v>2</v>
       </c>
       <c r="Q25" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="R25" s="6">
         <v>1</v>
@@ -6887,9 +6834,9 @@
         <v>0.23499999999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:21">
       <c r="A26" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B26" s="1">
         <v>1875</v>
@@ -6952,9 +6899,9 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:21">
       <c r="A27" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B27" s="1">
         <v>1875</v>
@@ -6966,7 +6913,7 @@
         <v>24</v>
       </c>
       <c r="E27" s="5">
-        <v>20.016999999999999</v>
+        <v>29.016999999999999</v>
       </c>
       <c r="F27" s="6">
         <v>28.742999999999999</v>
@@ -6987,7 +6934,7 @@
         <v>0.19600000000000001</v>
       </c>
       <c r="L27" s="6">
-        <v>0.159</v>
+        <v>0.189</v>
       </c>
       <c r="M27" s="1">
         <v>82</v>
@@ -7013,13 +6960,13 @@
       <c r="T27" s="1">
         <v>10</v>
       </c>
-      <c r="U27" s="26">
+      <c r="U27" s="22">
         <v>0.67</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:21">
       <c r="A28" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B28" s="1">
         <v>1875</v>
@@ -7061,7 +7008,7 @@
         <v>94</v>
       </c>
       <c r="O28" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="P28" s="1">
         <v>8</v>
@@ -7082,9 +7029,9 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:21">
       <c r="A29" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B29" s="1">
         <v>1875</v>
@@ -7147,9 +7094,9 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:21">
       <c r="A30" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B30" s="1">
         <v>1875</v>
@@ -7212,9 +7159,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:21">
       <c r="A31" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B31" s="1">
         <v>1875</v>
@@ -7226,7 +7173,7 @@
         <v>28</v>
       </c>
       <c r="E31" s="5">
-        <v>30.199000000000002</v>
+        <v>30.119</v>
       </c>
       <c r="F31" s="6">
         <v>30.088999999999999</v>
@@ -7277,9 +7224,9 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:21">
       <c r="A32" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B32" s="1">
         <v>1875</v>
@@ -7342,9 +7289,9 @@
         <v>0.255</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:21">
       <c r="A33" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B33" s="1">
         <v>1875</v>
@@ -7407,9 +7354,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:21">
       <c r="A34" s="7" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B34" s="8">
         <v>1875</v>
@@ -7457,7 +7404,7 @@
         <v>3</v>
       </c>
       <c r="Q34" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="R34" s="9">
         <v>3</v>
@@ -7472,18 +7419,18 @@
         <v>21</v>
       </c>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:21">
       <c r="A35" s="14"/>
       <c r="B35" s="15"/>
       <c r="C35" s="15"/>
       <c r="D35" s="16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E35" s="15">
         <v>29.869</v>
       </c>
       <c r="F35" s="16">
-        <v>29.861999999999998</v>
+        <v>28.861999999999998</v>
       </c>
       <c r="G35" s="14">
         <v>39.9</v>
@@ -7509,12 +7456,18 @@
       <c r="N35" s="16">
         <v>90.5</v>
       </c>
-      <c r="O35" s="14"/>
+      <c r="O35" s="14" t="s">
+        <v>21</v>
+      </c>
       <c r="P35" s="15">
         <v>3.8</v>
       </c>
-      <c r="Q35" s="15"/>
-      <c r="R35" s="16"/>
+      <c r="Q35" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="R35" s="16">
+        <v>2.9</v>
+      </c>
       <c r="S35" s="14">
         <v>7.8</v>
       </c>
@@ -7542,62 +7495,62 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED182907-3967-4840-BF65-EDCDC4C0836B}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A2:U36"/>
+  <dimension ref="A2:U35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U35" sqref="U35"/>
+      <pane ySplit="3" topLeftCell="E30" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L36" sqref="L36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="20" width="8.6640625" style="1" customWidth="1"/>
-    <col min="21" max="21" width="10.6640625" style="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.1640625" style="1"/>
+    <col min="3" max="3" width="10.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="20" width="8.7109375" style="1" customWidth="1"/>
+    <col min="21" max="21" width="10.7109375" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="27"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="35" t="s">
+    <row r="2" spans="1:21" s="2" customFormat="1">
+      <c r="A2" s="23"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="36"/>
-      <c r="G2" s="37" t="s">
-        <v>40</v>
-      </c>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="33" t="s">
+      <c r="F2" s="31"/>
+      <c r="G2" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="34"/>
-      <c r="M2" s="33" t="s">
+      <c r="L2" s="29"/>
+      <c r="M2" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="34"/>
-      <c r="O2" s="37" t="s">
+      <c r="N2" s="29"/>
+      <c r="O2" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="37"/>
-      <c r="Q2" s="37"/>
-      <c r="R2" s="38"/>
-      <c r="S2" s="33" t="s">
+      <c r="P2" s="32"/>
+      <c r="Q2" s="32"/>
+      <c r="R2" s="33"/>
+      <c r="S2" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="34"/>
+      <c r="T2" s="29"/>
       <c r="U2" s="10" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" s="2" customFormat="1">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -7662,9 +7615,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21">
       <c r="A4" s="5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B4" s="1">
         <v>1875</v>
@@ -7714,8 +7667,8 @@
       <c r="Q4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="R4" s="21" t="s">
-        <v>49</v>
+      <c r="R4" s="19" t="s">
+        <v>46</v>
       </c>
       <c r="S4" s="1">
         <v>10</v>
@@ -7727,9 +7680,9 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21">
       <c r="A5" s="5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B5" s="1">
         <v>1875</v>
@@ -7792,9 +7745,9 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21">
       <c r="A6" s="5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B6" s="1">
         <v>1875</v>
@@ -7857,9 +7810,9 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21">
       <c r="A7" s="5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B7" s="1">
         <v>1875</v>
@@ -7922,9 +7875,9 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21">
       <c r="A8" s="5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B8" s="1">
         <v>1875</v>
@@ -7987,9 +7940,9 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21">
       <c r="A9" s="5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B9" s="1">
         <v>1875</v>
@@ -8039,8 +7992,8 @@
       <c r="Q9" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="R9" s="21" t="s">
-        <v>50</v>
+      <c r="R9" s="19" t="s">
+        <v>47</v>
       </c>
       <c r="S9" s="1">
         <v>10</v>
@@ -8052,9 +8005,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21">
       <c r="A10" s="5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B10" s="1">
         <v>1875</v>
@@ -8117,9 +8070,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21">
       <c r="A11" s="5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B11" s="1">
         <v>1875</v>
@@ -8182,9 +8135,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:21">
       <c r="A12" s="5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B12" s="1">
         <v>1875</v>
@@ -8247,9 +8200,9 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21">
       <c r="A13" s="5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B13" s="1">
         <v>1875</v>
@@ -8293,14 +8246,14 @@
       <c r="O13" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="P13" s="19" t="s">
-        <v>51</v>
+      <c r="P13" s="18" t="s">
+        <v>48</v>
       </c>
       <c r="Q13" s="1" t="s">
         <v>22</v>
       </c>
       <c r="R13" s="6" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="S13" s="1">
         <v>10</v>
@@ -8312,9 +8265,9 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:21">
       <c r="A14" s="5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B14" s="1">
         <v>1875</v>
@@ -8359,7 +8312,7 @@
         <v>26</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="Q14" s="1" t="s">
         <v>30</v>
@@ -8377,9 +8330,9 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21">
       <c r="A15" s="5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B15" s="1">
         <v>1875</v>
@@ -8442,9 +8395,9 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21">
       <c r="A16" s="5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B16" s="1">
         <v>1875</v>
@@ -8507,9 +8460,9 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:21">
       <c r="A17" s="5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B17" s="1">
         <v>1875</v>
@@ -8572,9 +8525,9 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:21">
       <c r="A18" s="5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B18" s="1">
         <v>1875</v>
@@ -8637,9 +8590,9 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:21">
       <c r="A19" s="5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B19" s="1">
         <v>1875</v>
@@ -8702,9 +8655,9 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:21">
       <c r="A20" s="5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B20" s="1">
         <v>1875</v>
@@ -8767,9 +8720,9 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:21">
       <c r="A21" s="5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B21" s="1">
         <v>1875</v>
@@ -8819,7 +8772,7 @@
       <c r="Q21" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="R21" s="21" t="s">
+      <c r="R21" s="19" t="s">
         <v>32</v>
       </c>
       <c r="S21" s="1">
@@ -8832,9 +8785,9 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:21">
       <c r="A22" s="5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B22" s="1">
         <v>1875</v>
@@ -8884,8 +8837,8 @@
       <c r="Q22" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="R22" s="21" t="s">
-        <v>53</v>
+      <c r="R22" s="19" t="s">
+        <v>50</v>
       </c>
       <c r="S22" s="1">
         <v>10</v>
@@ -8897,9 +8850,9 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:21">
       <c r="A23" s="5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B23" s="1">
         <v>1875</v>
@@ -8949,7 +8902,7 @@
       <c r="Q23" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="R23" s="21" t="s">
+      <c r="R23" s="19" t="s">
         <v>32</v>
       </c>
       <c r="S23" s="1">
@@ -8962,9 +8915,9 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:21">
       <c r="A24" s="5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B24" s="1">
         <v>1875</v>
@@ -9012,10 +8965,10 @@
         <v>2</v>
       </c>
       <c r="Q24" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="R24" s="21" t="s">
-        <v>55</v>
+        <v>51</v>
+      </c>
+      <c r="R24" s="19" t="s">
+        <v>52</v>
       </c>
       <c r="S24" s="1">
         <v>8</v>
@@ -9027,9 +8980,9 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:21">
       <c r="A25" s="5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B25" s="1">
         <v>1875</v>
@@ -9071,7 +9024,7 @@
         <v>90</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P25" s="1">
         <v>4</v>
@@ -9092,9 +9045,9 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:21">
       <c r="A26" s="5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B26" s="1">
         <v>1875</v>
@@ -9157,9 +9110,9 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:21">
       <c r="A27" s="5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B27" s="1">
         <v>1875</v>
@@ -9209,8 +9162,8 @@
       <c r="Q27" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="R27" s="21" t="s">
-        <v>49</v>
+      <c r="R27" s="19" t="s">
+        <v>46</v>
       </c>
       <c r="S27" s="1">
         <v>9</v>
@@ -9222,9 +9175,9 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:21">
       <c r="A28" s="5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B28" s="1">
         <v>1875</v>
@@ -9239,7 +9192,7 @@
         <v>29.2</v>
       </c>
       <c r="F28" s="6">
-        <v>28.736000000000001</v>
+        <v>29.736000000000001</v>
       </c>
       <c r="G28" s="1">
         <v>38.799999999999997</v>
@@ -9275,7 +9228,7 @@
         <v>34</v>
       </c>
       <c r="R28" s="6" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="S28" s="1">
         <v>10</v>
@@ -9287,9 +9240,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:21">
       <c r="A29" s="5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B29" s="1">
         <v>1875</v>
@@ -9334,7 +9287,7 @@
         <v>28</v>
       </c>
       <c r="P29" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="Q29" s="1" t="s">
         <v>26</v>
@@ -9352,9 +9305,9 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:21">
       <c r="A30" s="5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B30" s="1">
         <v>1875</v>
@@ -9369,7 +9322,7 @@
         <v>30.163</v>
       </c>
       <c r="F30" s="6">
-        <v>30.071000000000002</v>
+        <v>30.111000000000001</v>
       </c>
       <c r="G30" s="1">
         <v>45.9</v>
@@ -9417,9 +9370,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:21">
       <c r="A31" s="5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B31" s="1">
         <v>1875</v>
@@ -9434,7 +9387,7 @@
         <v>30.158999999999999</v>
       </c>
       <c r="F31" s="6">
-        <v>30.068000000000001</v>
+        <v>30.167999999999999</v>
       </c>
       <c r="G31" s="1">
         <v>43.9</v>
@@ -9482,9 +9435,9 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:21">
       <c r="A32" s="5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B32" s="1">
         <v>1875</v>
@@ -9529,7 +9482,7 @@
         <v>31</v>
       </c>
       <c r="P32" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="Q32" s="1" t="s">
         <v>30</v>
@@ -9547,9 +9500,9 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:21">
       <c r="A33" s="5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B33" s="1">
         <v>1875</v>
@@ -9591,7 +9544,7 @@
         <v>85</v>
       </c>
       <c r="O33" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="P33" s="1">
         <v>2</v>
@@ -9612,9 +9565,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:21">
       <c r="A34" s="7" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B34" s="8">
         <v>1875</v>
@@ -9677,12 +9630,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:21">
       <c r="A35" s="14"/>
       <c r="B35" s="15"/>
       <c r="C35" s="15"/>
       <c r="D35" s="16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E35" s="15">
         <v>28.879000000000001</v>
@@ -9714,13 +9667,15 @@
       <c r="N35" s="16">
         <v>92.9</v>
       </c>
-      <c r="O35" s="14">
-        <v>3.3</v>
+      <c r="O35" s="14" t="s">
+        <v>21</v>
       </c>
       <c r="P35" s="15">
         <v>2.9</v>
       </c>
-      <c r="Q35" s="15"/>
+      <c r="Q35" s="15" t="s">
+        <v>21</v>
+      </c>
       <c r="R35" s="16">
         <v>3.1</v>
       </c>
@@ -9730,14 +9685,8 @@
       <c r="T35" s="16">
         <v>8.6999999999999993</v>
       </c>
-      <c r="U35" s="30">
+      <c r="U35" s="25">
         <v>2.83</v>
-      </c>
-    </row>
-    <row r="36" spans="1:21" ht="36" x14ac:dyDescent="0.2">
-      <c r="J36" s="23"/>
-      <c r="L36" s="29" t="s">
-        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -9757,62 +9706,62 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC329757-9589-43BA-9830-B0C05F54B799}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A2:U36"/>
+  <dimension ref="A2:U35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U26" sqref="U26"/>
+      <pane ySplit="3" topLeftCell="C28" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q36" sqref="Q36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="20" width="8.6640625" style="1" customWidth="1"/>
-    <col min="21" max="21" width="10.6640625" style="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.1640625" style="1"/>
+    <col min="3" max="3" width="10.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="20" width="8.7109375" style="1" customWidth="1"/>
+    <col min="21" max="21" width="10.7109375" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="27"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="35" t="s">
+    <row r="2" spans="1:21" s="2" customFormat="1">
+      <c r="A2" s="23"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="36"/>
-      <c r="G2" s="37" t="s">
-        <v>40</v>
-      </c>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="33" t="s">
+      <c r="F2" s="31"/>
+      <c r="G2" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="34"/>
-      <c r="M2" s="33" t="s">
+      <c r="L2" s="29"/>
+      <c r="M2" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="34"/>
-      <c r="O2" s="37" t="s">
+      <c r="N2" s="29"/>
+      <c r="O2" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="37"/>
-      <c r="Q2" s="37"/>
-      <c r="R2" s="38"/>
-      <c r="S2" s="33" t="s">
+      <c r="P2" s="32"/>
+      <c r="Q2" s="32"/>
+      <c r="R2" s="33"/>
+      <c r="S2" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="34"/>
+      <c r="T2" s="29"/>
       <c r="U2" s="10" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" s="2" customFormat="1">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -9877,9 +9826,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21">
       <c r="A4" s="5" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B4" s="1">
         <v>1875</v>
@@ -9894,7 +9843,7 @@
         <v>29.826000000000001</v>
       </c>
       <c r="F4" s="6">
-        <v>26.619</v>
+        <v>29.619</v>
       </c>
       <c r="G4" s="1">
         <v>33.5</v>
@@ -9942,9 +9891,9 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21">
       <c r="A5" s="5" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B5" s="1">
         <v>1875</v>
@@ -10007,9 +9956,9 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21">
       <c r="A6" s="5" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B6" s="1">
         <v>1875</v>
@@ -10072,9 +10021,9 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21">
       <c r="A7" s="5" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B7" s="1">
         <v>1875</v>
@@ -10137,9 +10086,9 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21">
       <c r="A8" s="5" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B8" s="1">
         <v>1875</v>
@@ -10202,9 +10151,9 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21">
       <c r="A9" s="5" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B9" s="1">
         <v>1875</v>
@@ -10219,7 +10168,7 @@
         <v>29.687000000000001</v>
       </c>
       <c r="F9" s="6">
-        <v>28.855</v>
+        <v>29.855</v>
       </c>
       <c r="G9" s="1">
         <v>50.8</v>
@@ -10267,9 +10216,9 @@
         <v>0.39</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21">
       <c r="A10" s="5" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B10" s="1">
         <v>1875</v>
@@ -10332,9 +10281,9 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21">
       <c r="A11" s="5" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B11" s="1">
         <v>1875</v>
@@ -10397,9 +10346,9 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:21">
       <c r="A12" s="5" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B12" s="1">
         <v>1875</v>
@@ -10462,9 +10411,9 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21">
       <c r="A13" s="5" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B13" s="1">
         <v>1875</v>
@@ -10527,9 +10476,9 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:21">
       <c r="A14" s="5" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B14" s="1">
         <v>1875</v>
@@ -10592,9 +10541,9 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21">
       <c r="A15" s="5" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B15" s="1">
         <v>1875</v>
@@ -10657,9 +10606,9 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21">
       <c r="A16" s="5" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B16" s="1">
         <v>1875</v>
@@ -10722,9 +10671,9 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:21">
       <c r="A17" s="5" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B17" s="1">
         <v>1875</v>
@@ -10787,9 +10736,9 @@
         <v>0.77</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:21">
       <c r="A18" s="5" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B18" s="1">
         <v>1875</v>
@@ -10852,9 +10801,9 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:21">
       <c r="A19" s="5" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B19" s="1">
         <v>1875</v>
@@ -10908,7 +10857,7 @@
         <v>2</v>
       </c>
       <c r="S19" s="1">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="T19" s="1">
         <v>10</v>
@@ -10917,9 +10866,9 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:21">
       <c r="A20" s="5" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B20" s="1">
         <v>1875</v>
@@ -10973,7 +10922,7 @@
         <v>2</v>
       </c>
       <c r="S20" s="1">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="T20" s="1">
         <v>10</v>
@@ -10982,9 +10931,9 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:21">
       <c r="A21" s="5" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B21" s="1">
         <v>1875</v>
@@ -11011,7 +10960,7 @@
         <v>48.2</v>
       </c>
       <c r="J21" s="6">
-        <v>53.4</v>
+        <v>53.2</v>
       </c>
       <c r="K21" s="1">
         <v>0.34799999999999998</v>
@@ -11038,7 +10987,7 @@
         <v>4</v>
       </c>
       <c r="S21" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="T21" s="1">
         <v>10</v>
@@ -11047,9 +10996,9 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:21">
       <c r="A22" s="5" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B22" s="1">
         <v>1875</v>
@@ -11076,7 +11025,7 @@
         <v>46.7</v>
       </c>
       <c r="J22" s="6">
-        <v>51.4</v>
+        <v>51.9</v>
       </c>
       <c r="K22" s="1">
         <v>0.317</v>
@@ -11112,9 +11061,9 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:21">
       <c r="A23" s="5" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B23" s="1">
         <v>1875</v>
@@ -11141,7 +11090,7 @@
         <v>41.7</v>
       </c>
       <c r="J23" s="6">
-        <v>52.7</v>
+        <v>50.3</v>
       </c>
       <c r="K23" s="1">
         <v>0.28499999999999998</v>
@@ -11177,9 +11126,9 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:21">
       <c r="A24" s="5" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B24" s="1">
         <v>1875</v>
@@ -11206,7 +11155,7 @@
         <v>37</v>
       </c>
       <c r="J24" s="6">
-        <v>53.2</v>
+        <v>43.3</v>
       </c>
       <c r="K24" s="1">
         <v>0.23100000000000001</v>
@@ -11227,7 +11176,7 @@
         <v>2</v>
       </c>
       <c r="Q24" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="R24" s="6">
         <v>2</v>
@@ -11242,9 +11191,9 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:21">
       <c r="A25" s="5" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B25" s="1">
         <v>1875</v>
@@ -11271,7 +11220,7 @@
         <v>34.9</v>
       </c>
       <c r="J25" s="6">
-        <v>51.9</v>
+        <v>46.7</v>
       </c>
       <c r="K25" s="1">
         <v>0.18099999999999999</v>
@@ -11307,9 +11256,9 @@
         <v>0.52</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:21">
       <c r="A26" s="5" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B26" s="1">
         <v>1875</v>
@@ -11336,7 +11285,7 @@
         <v>36</v>
       </c>
       <c r="J26" s="6">
-        <v>50.3</v>
+        <v>51.4</v>
       </c>
       <c r="K26" s="1">
         <v>0.35099999999999998</v>
@@ -11372,9 +11321,9 @@
         <v>0.78</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:21">
       <c r="A27" s="5" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B27" s="1">
         <v>1875</v>
@@ -11400,8 +11349,8 @@
       <c r="I27" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="J27" s="6">
-        <v>43.3</v>
+      <c r="J27" s="6" t="s">
+        <v>21</v>
       </c>
       <c r="K27" s="1">
         <v>0.24</v>
@@ -11433,13 +11382,13 @@
       <c r="T27" s="1">
         <v>4</v>
       </c>
-      <c r="U27" s="26">
+      <c r="U27" s="22">
         <v>0.8</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:21">
       <c r="A28" s="5" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B28" s="1">
         <v>1875</v>
@@ -11466,7 +11415,7 @@
         <v>35.9</v>
       </c>
       <c r="J28" s="6">
-        <v>46.7</v>
+        <v>49.6</v>
       </c>
       <c r="K28" s="1">
         <v>0.26100000000000001</v>
@@ -11502,9 +11451,9 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:21">
       <c r="A29" s="5" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B29" s="1">
         <v>1875</v>
@@ -11531,7 +11480,7 @@
         <v>36.200000000000003</v>
       </c>
       <c r="J29" s="6">
-        <v>51.4</v>
+        <v>47.7</v>
       </c>
       <c r="K29" s="1">
         <v>0.217</v>
@@ -11567,9 +11516,9 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:21">
       <c r="A30" s="5" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B30" s="1">
         <v>1875</v>
@@ -11595,8 +11544,8 @@
       <c r="I30" s="1">
         <v>46.2</v>
       </c>
-      <c r="J30" s="6" t="s">
-        <v>21</v>
+      <c r="J30" s="6">
+        <v>49.4</v>
       </c>
       <c r="K30" s="1">
         <v>0.32200000000000001</v>
@@ -11632,9 +11581,9 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:21">
       <c r="A31" s="5" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B31" s="1">
         <v>1875</v>
@@ -11697,9 +11646,9 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:21">
       <c r="A32" s="5" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B32" s="1">
         <v>1875</v>
@@ -11762,9 +11711,9 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:21">
       <c r="A33" s="5" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B33" s="1">
         <v>1875</v>
@@ -11827,9 +11776,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:21">
       <c r="A34" s="7" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B34" s="8">
         <v>1875</v>
@@ -11892,12 +11841,12 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:21">
       <c r="A35" s="14"/>
       <c r="B35" s="15"/>
       <c r="C35" s="15"/>
       <c r="D35" s="16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E35" s="15">
         <v>29.831</v>
@@ -11929,11 +11878,15 @@
       <c r="N35" s="16">
         <v>93.6</v>
       </c>
-      <c r="O35" s="14"/>
+      <c r="O35" s="14" t="s">
+        <v>21</v>
+      </c>
       <c r="P35" s="15">
         <v>2.2000000000000002</v>
       </c>
-      <c r="Q35" s="15"/>
+      <c r="Q35" s="15" t="s">
+        <v>21</v>
+      </c>
       <c r="R35" s="16">
         <v>1.8</v>
       </c>
@@ -11943,16 +11896,8 @@
       <c r="T35" s="16">
         <v>9.1999999999999993</v>
       </c>
-      <c r="U35" s="30">
+      <c r="U35" s="25">
         <v>9.33</v>
-      </c>
-    </row>
-    <row r="36" spans="1:21" ht="48" x14ac:dyDescent="0.2">
-      <c r="I36" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="J36" s="23" t="s">
-        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -11975,59 +11920,59 @@
   <dimension ref="A2:U35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F23" sqref="F23"/>
+      <pane ySplit="3" topLeftCell="I25" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="U36" sqref="U36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="20" width="8.6640625" style="1" customWidth="1"/>
-    <col min="21" max="21" width="10.6640625" style="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.1640625" style="1"/>
+    <col min="3" max="3" width="10.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="20" width="8.7109375" style="1" customWidth="1"/>
+    <col min="21" max="21" width="10.7109375" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="27"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="35" t="s">
+    <row r="2" spans="1:21" s="2" customFormat="1">
+      <c r="A2" s="23"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="36"/>
-      <c r="G2" s="37" t="s">
-        <v>40</v>
-      </c>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="33" t="s">
+      <c r="F2" s="31"/>
+      <c r="G2" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="34"/>
-      <c r="M2" s="33" t="s">
+      <c r="L2" s="29"/>
+      <c r="M2" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="34"/>
-      <c r="O2" s="37" t="s">
+      <c r="N2" s="29"/>
+      <c r="O2" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="37"/>
-      <c r="Q2" s="37"/>
-      <c r="R2" s="38"/>
-      <c r="S2" s="33" t="s">
+      <c r="P2" s="32"/>
+      <c r="Q2" s="32"/>
+      <c r="R2" s="33"/>
+      <c r="S2" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="34"/>
+      <c r="T2" s="29"/>
       <c r="U2" s="10" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" s="2" customFormat="1">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -12092,9 +12037,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21">
       <c r="A4" s="5" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B4" s="1">
         <v>1875</v>
@@ -12144,8 +12089,8 @@
       <c r="Q4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="R4" s="21" t="s">
-        <v>51</v>
+      <c r="R4" s="19" t="s">
+        <v>48</v>
       </c>
       <c r="S4" s="1">
         <v>10</v>
@@ -12157,9 +12102,9 @@
         <v>0.52</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21">
       <c r="A5" s="5" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B5" s="1">
         <v>1875</v>
@@ -12204,7 +12149,7 @@
         <v>23</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="Q5" s="1" t="s">
         <v>23</v>
@@ -12222,9 +12167,9 @@
         <v>0.13400000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21">
       <c r="A6" s="5" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B6" s="1">
         <v>1875</v>
@@ -12287,9 +12232,9 @@
         <v>6.4000000000000001E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21">
       <c r="A7" s="5" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B7" s="1">
         <v>1875</v>
@@ -12333,8 +12278,8 @@
       <c r="O7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="P7" s="19" t="s">
-        <v>51</v>
+      <c r="P7" s="18" t="s">
+        <v>48</v>
       </c>
       <c r="Q7" s="1" t="s">
         <v>23</v>
@@ -12352,9 +12297,9 @@
         <v>5.3999999999999999E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21">
       <c r="A8" s="5" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B8" s="1">
         <v>1875</v>
@@ -12417,9 +12362,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21">
       <c r="A9" s="5" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B9" s="1">
         <v>1875</v>
@@ -12482,9 +12427,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21">
       <c r="A10" s="5" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B10" s="1">
         <v>1875</v>
@@ -12496,7 +12441,7 @@
         <v>7</v>
       </c>
       <c r="E10" s="5">
-        <v>29.068000000000001</v>
+        <v>30.068000000000001</v>
       </c>
       <c r="F10" s="6">
         <v>30.16</v>
@@ -12529,13 +12474,13 @@
         <v>22</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="R10" s="6" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="S10" s="1">
         <v>10</v>
@@ -12547,9 +12492,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21">
       <c r="A11" s="5" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B11" s="1">
         <v>1875</v>
@@ -12561,7 +12506,7 @@
         <v>8</v>
       </c>
       <c r="E11" s="5">
-        <v>29.166</v>
+        <v>30.166</v>
       </c>
       <c r="F11" s="6">
         <v>30.111999999999998</v>
@@ -12594,7 +12539,7 @@
         <v>22</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="Q11" s="1" t="s">
         <v>30</v>
@@ -12612,9 +12557,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:21">
       <c r="A12" s="5" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B12" s="1">
         <v>1875</v>
@@ -12677,9 +12622,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21">
       <c r="A13" s="5" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B13" s="1">
         <v>1875</v>
@@ -12691,7 +12636,7 @@
         <v>10</v>
       </c>
       <c r="E13" s="5">
-        <v>28.797999999999998</v>
+        <v>29.797999999999998</v>
       </c>
       <c r="F13" s="6">
         <v>29.780999999999999</v>
@@ -12742,9 +12687,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:21">
       <c r="A14" s="5" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B14" s="1">
         <v>1875</v>
@@ -12807,9 +12752,9 @@
         <v>0.113</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21">
       <c r="A15" s="5" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B15" s="1">
         <v>1875</v>
@@ -12872,9 +12817,9 @@
         <v>3.4000000000000002E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21">
       <c r="A16" s="5" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B16" s="1">
         <v>1875</v>
@@ -12937,9 +12882,9 @@
         <v>0.13400000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:21">
       <c r="A17" s="5" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B17" s="1">
         <v>1875</v>
@@ -12983,8 +12928,8 @@
       <c r="O17" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="P17" s="19" t="s">
-        <v>51</v>
+      <c r="P17" s="18" t="s">
+        <v>48</v>
       </c>
       <c r="Q17" s="1" t="s">
         <v>24</v>
@@ -13002,9 +12947,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:21">
       <c r="A18" s="5" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B18" s="1">
         <v>1875</v>
@@ -13019,7 +12964,7 @@
         <v>29.893999999999998</v>
       </c>
       <c r="F18" s="6">
-        <v>28.864999999999998</v>
+        <v>29.864999999999998</v>
       </c>
       <c r="G18" s="1">
         <v>47.3</v>
@@ -13067,9 +13012,9 @@
         <v>0.16500000000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:21">
       <c r="A19" s="5" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B19" s="1">
         <v>1875</v>
@@ -13132,9 +13077,9 @@
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:21">
       <c r="A20" s="5" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B20" s="1">
         <v>1875</v>
@@ -13197,9 +13142,9 @@
         <v>0.27500000000000002</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:21">
       <c r="A21" s="5" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B21" s="1">
         <v>1875</v>
@@ -13243,14 +13188,14 @@
       <c r="O21" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="P21" s="19" t="s">
-        <v>51</v>
+      <c r="P21" s="18" t="s">
+        <v>48</v>
       </c>
       <c r="Q21" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="R21" s="21" t="s">
-        <v>51</v>
+      <c r="R21" s="19" t="s">
+        <v>48</v>
       </c>
       <c r="S21" s="1">
         <v>10</v>
@@ -13262,9 +13207,9 @@
         <v>3.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:21">
       <c r="A22" s="5" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B22" s="1">
         <v>1875</v>
@@ -13308,8 +13253,8 @@
       <c r="O22" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="P22" s="19" t="s">
-        <v>51</v>
+      <c r="P22" s="18" t="s">
+        <v>48</v>
       </c>
       <c r="Q22" s="1" t="s">
         <v>24</v>
@@ -13327,9 +13272,9 @@
         <v>3.3000000000000002E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:21">
       <c r="A23" s="5" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B23" s="1">
         <v>1875</v>
@@ -13392,9 +13337,9 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:21">
       <c r="A24" s="5" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B24" s="1">
         <v>1875</v>
@@ -13457,9 +13402,9 @@
         <v>0.53</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:21">
       <c r="A25" s="5" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B25" s="1">
         <v>1875</v>
@@ -13504,7 +13449,7 @@
         <v>34</v>
       </c>
       <c r="P25" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="Q25" s="1" t="s">
         <v>34</v>
@@ -13522,9 +13467,9 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:21">
       <c r="A26" s="5" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B26" s="1">
         <v>1875</v>
@@ -13587,9 +13532,9 @@
         <v>0.317</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:21">
       <c r="A27" s="5" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B27" s="1">
         <v>1875</v>
@@ -13633,14 +13578,14 @@
       <c r="O27" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="P27" s="19" t="s">
-        <v>50</v>
+      <c r="P27" s="18" t="s">
+        <v>47</v>
       </c>
       <c r="Q27" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="R27" s="21" t="s">
-        <v>51</v>
+      <c r="R27" s="19" t="s">
+        <v>48</v>
       </c>
       <c r="S27" s="1">
         <v>0</v>
@@ -13652,9 +13597,9 @@
         <v>0.28299999999999997</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:21">
       <c r="A28" s="5" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B28" s="1">
         <v>1875</v>
@@ -13698,8 +13643,8 @@
       <c r="O28" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="P28" s="19" t="s">
-        <v>50</v>
+      <c r="P28" s="18" t="s">
+        <v>47</v>
       </c>
       <c r="Q28" s="1" t="s">
         <v>34</v>
@@ -13717,9 +13662,9 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:21">
       <c r="A29" s="5" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B29" s="1">
         <v>1875</v>
@@ -13782,9 +13727,9 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:21">
       <c r="A30" s="5" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B30" s="1">
         <v>1875</v>
@@ -13847,9 +13792,9 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:21">
       <c r="A31" s="5" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B31" s="1">
         <v>1875</v>
@@ -13912,9 +13857,9 @@
         <v>0.20499999999999999</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:21">
       <c r="A32" s="5" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B32" s="1">
         <v>1875</v>
@@ -13959,7 +13904,7 @@
         <v>30</v>
       </c>
       <c r="P32" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="Q32" s="1" t="s">
         <v>23</v>
@@ -13977,9 +13922,9 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:21">
       <c r="A33" s="5" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B33" s="1">
         <v>1875</v>
@@ -14042,9 +13987,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:21">
       <c r="A34" s="7" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B34" s="8">
         <v>1875</v>
@@ -14089,7 +14034,7 @@
         <v>28</v>
       </c>
       <c r="P34" s="8" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="Q34" s="8" t="s">
         <v>28</v>
@@ -14107,17 +14052,17 @@
         <v>21</v>
       </c>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:21">
       <c r="A35" s="14"/>
       <c r="B35" s="15"/>
       <c r="C35" s="15"/>
       <c r="D35" s="16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E35" s="15">
         <v>29.952999999999999</v>
       </c>
-      <c r="F35" s="31">
+      <c r="F35" s="26">
         <v>29.94</v>
       </c>
       <c r="G35" s="14">
@@ -14144,11 +14089,15 @@
       <c r="N35" s="16">
         <v>94</v>
       </c>
-      <c r="O35" s="14"/>
+      <c r="O35" s="14" t="s">
+        <v>21</v>
+      </c>
       <c r="P35" s="15">
         <v>0.9</v>
       </c>
-      <c r="Q35" s="15"/>
+      <c r="Q35" s="15" t="s">
+        <v>21</v>
+      </c>
       <c r="R35" s="16">
         <v>1</v>
       </c>
@@ -14182,59 +14131,59 @@
   <dimension ref="A2:U35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U35" sqref="U35"/>
+      <pane ySplit="3" topLeftCell="C26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="U36" sqref="U36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="20" width="8.6640625" style="1" customWidth="1"/>
-    <col min="21" max="21" width="10.6640625" style="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.1640625" style="1"/>
+    <col min="3" max="3" width="10.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="20" width="8.7109375" style="1" customWidth="1"/>
+    <col min="21" max="21" width="10.7109375" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="27"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="35" t="s">
+    <row r="2" spans="1:21" s="2" customFormat="1">
+      <c r="A2" s="23"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="36"/>
-      <c r="G2" s="37" t="s">
-        <v>40</v>
-      </c>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="33" t="s">
+      <c r="F2" s="31"/>
+      <c r="G2" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="34"/>
-      <c r="M2" s="33" t="s">
+      <c r="L2" s="29"/>
+      <c r="M2" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="34"/>
-      <c r="O2" s="37" t="s">
+      <c r="N2" s="29"/>
+      <c r="O2" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="37"/>
-      <c r="Q2" s="37"/>
-      <c r="R2" s="38"/>
-      <c r="S2" s="33" t="s">
+      <c r="P2" s="32"/>
+      <c r="Q2" s="32"/>
+      <c r="R2" s="33"/>
+      <c r="S2" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="34"/>
+      <c r="T2" s="29"/>
       <c r="U2" s="10" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" s="2" customFormat="1">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -14299,9 +14248,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21">
       <c r="A4" s="5" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B4" s="1">
         <v>1875</v>
@@ -14364,9 +14313,9 @@
         <v>1.04</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21">
       <c r="A5" s="5" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B5" s="1">
         <v>1875</v>
@@ -14426,12 +14375,12 @@
         <v>10</v>
       </c>
       <c r="U5" s="12">
-        <v>1.58</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+        <v>0.57999999999999996</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21">
       <c r="A6" s="5" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B6" s="1">
         <v>1875</v>
@@ -14491,12 +14440,12 @@
         <v>10</v>
       </c>
       <c r="U6" s="12">
-        <v>1.81</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+        <v>0.81</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21">
       <c r="A7" s="5" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B7" s="1">
         <v>1875</v>
@@ -14556,12 +14505,12 @@
         <v>10</v>
       </c>
       <c r="U7" s="12">
-        <v>1.47</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21">
       <c r="A8" s="5" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B8" s="1">
         <v>1875</v>
@@ -14621,12 +14570,12 @@
         <v>10</v>
       </c>
       <c r="U8" s="12">
-        <v>1.08</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21">
       <c r="A9" s="5" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B9" s="1">
         <v>1875</v>
@@ -14686,12 +14635,12 @@
         <v>10</v>
       </c>
       <c r="U9" s="12">
-        <v>1.27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21">
       <c r="A10" s="5" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B10" s="1">
         <v>1875</v>
@@ -14751,12 +14700,12 @@
         <v>10</v>
       </c>
       <c r="U10" s="12">
-        <v>1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21">
       <c r="A11" s="5" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B11" s="1">
         <v>1875</v>
@@ -14816,12 +14765,12 @@
         <v>10</v>
       </c>
       <c r="U11" s="12">
-        <v>1.26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21">
       <c r="A12" s="5" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B12" s="1">
         <v>1875</v>
@@ -14881,12 +14830,12 @@
         <v>10</v>
       </c>
       <c r="U12" s="12">
-        <v>1.35</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21">
       <c r="A13" s="5" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B13" s="1">
         <v>1875</v>
@@ -14946,12 +14895,12 @@
         <v>10</v>
       </c>
       <c r="U13" s="12">
-        <v>1.05</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21">
       <c r="A14" s="5" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B14" s="1">
         <v>1875</v>
@@ -15011,12 +14960,12 @@
         <v>10</v>
       </c>
       <c r="U14" s="12">
-        <v>1.35</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21">
       <c r="A15" s="5" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B15" s="1">
         <v>1875</v>
@@ -15076,12 +15025,12 @@
         <v>10</v>
       </c>
       <c r="U15" s="12">
-        <v>1.19</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21">
       <c r="A16" s="5" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B16" s="1">
         <v>1875</v>
@@ -15144,9 +15093,9 @@
         <v>2.0099999999999998</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:21">
       <c r="A17" s="5" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B17" s="1">
         <v>1875</v>
@@ -15209,9 +15158,9 @@
         <v>1.38</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:21">
       <c r="A18" s="5" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B18" s="1">
         <v>1875</v>
@@ -15271,12 +15220,12 @@
         <v>10</v>
       </c>
       <c r="U18" s="12">
-        <v>1.39</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21">
       <c r="A19" s="5" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B19" s="1">
         <v>1875</v>
@@ -15336,12 +15285,12 @@
         <v>10</v>
       </c>
       <c r="U19" s="12">
-        <v>1.58</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
+        <v>0.57999999999999996</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21">
       <c r="A20" s="5" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B20" s="1">
         <v>1875</v>
@@ -15404,9 +15353,9 @@
         <v>1.27</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:21">
       <c r="A21" s="5" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B21" s="1">
         <v>1875</v>
@@ -15466,12 +15415,12 @@
         <v>10</v>
       </c>
       <c r="U21" s="12">
-        <v>1.45</v>
-      </c>
-    </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21">
       <c r="A22" s="5" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B22" s="1">
         <v>1875</v>
@@ -15531,12 +15480,12 @@
         <v>10</v>
       </c>
       <c r="U22" s="12">
-        <v>1.9</v>
-      </c>
-    </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21">
       <c r="A23" s="5" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B23" s="1">
         <v>1875</v>
@@ -15596,12 +15545,12 @@
         <v>10</v>
       </c>
       <c r="U23" s="12">
-        <v>1.22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21">
       <c r="A24" s="5" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B24" s="1">
         <v>1875</v>
@@ -15661,12 +15610,12 @@
         <v>9</v>
       </c>
       <c r="U24" s="12">
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21">
       <c r="A25" s="5" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B25" s="1">
         <v>1875</v>
@@ -15726,12 +15675,12 @@
         <v>9</v>
       </c>
       <c r="U25" s="12">
-        <v>1.52</v>
-      </c>
-    </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21">
       <c r="A26" s="5" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B26" s="1">
         <v>1875</v>
@@ -15794,9 +15743,9 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:21">
       <c r="A27" s="5" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B27" s="1">
         <v>1875</v>
@@ -15856,12 +15805,12 @@
         <v>9</v>
       </c>
       <c r="U27" s="12">
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21">
       <c r="A28" s="5" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B28" s="1">
         <v>1875</v>
@@ -15921,12 +15870,12 @@
         <v>5</v>
       </c>
       <c r="U28" s="12">
-        <v>1.01</v>
-      </c>
-    </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21">
       <c r="A29" s="5" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B29" s="1">
         <v>1875</v>
@@ -15986,12 +15935,12 @@
         <v>10</v>
       </c>
       <c r="U29" s="12">
-        <v>1.23</v>
-      </c>
-    </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21">
       <c r="A30" s="5" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B30" s="1">
         <v>1875</v>
@@ -16051,12 +16000,12 @@
         <v>10</v>
       </c>
       <c r="U30" s="12">
-        <v>1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21">
       <c r="A31" s="5" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B31" s="1">
         <v>1875</v>
@@ -16116,12 +16065,12 @@
         <v>10</v>
       </c>
       <c r="U31" s="12">
-        <v>1.51</v>
-      </c>
-    </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21">
       <c r="A32" s="5" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B32" s="1">
         <v>1875</v>
@@ -16184,9 +16133,9 @@
         <v>1.46</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:21">
       <c r="A33" s="5" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B33" s="1">
         <v>1875</v>
@@ -16249,9 +16198,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:21">
       <c r="A34" s="7" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B34" s="8">
         <v>1875</v>
@@ -16314,12 +16263,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:21">
       <c r="A35" s="14"/>
       <c r="B35" s="15"/>
       <c r="C35" s="15"/>
       <c r="D35" s="16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E35" s="15">
         <v>30.009</v>
@@ -16351,11 +16300,15 @@
       <c r="N35" s="16">
         <v>97.5</v>
       </c>
-      <c r="O35" s="14"/>
+      <c r="O35" s="14" t="s">
+        <v>21</v>
+      </c>
       <c r="P35" s="15">
         <v>3.5</v>
       </c>
-      <c r="Q35" s="15"/>
+      <c r="Q35" s="15" t="s">
+        <v>21</v>
+      </c>
       <c r="R35" s="16">
         <v>4.4000000000000004</v>
       </c>
@@ -16365,7 +16318,7 @@
       <c r="T35" s="16">
         <v>9.4</v>
       </c>
-      <c r="U35" s="30">
+      <c r="U35" s="25">
         <v>16.850000000000001</v>
       </c>
     </row>
@@ -16389,59 +16342,59 @@
   <dimension ref="A2:U35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="V38" sqref="V38"/>
+      <pane ySplit="3" topLeftCell="N27" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P36" sqref="P36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="20" width="8.6640625" style="1" customWidth="1"/>
-    <col min="21" max="21" width="10.6640625" style="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.1640625" style="1"/>
+    <col min="3" max="3" width="10.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="20" width="8.7109375" style="1" customWidth="1"/>
+    <col min="21" max="21" width="10.7109375" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="27"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="35" t="s">
+    <row r="2" spans="1:21" s="2" customFormat="1">
+      <c r="A2" s="23"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="36"/>
-      <c r="G2" s="37" t="s">
-        <v>40</v>
-      </c>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="33" t="s">
+      <c r="F2" s="31"/>
+      <c r="G2" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="34"/>
-      <c r="M2" s="33" t="s">
+      <c r="L2" s="29"/>
+      <c r="M2" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="34"/>
-      <c r="O2" s="37" t="s">
+      <c r="N2" s="29"/>
+      <c r="O2" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="37"/>
-      <c r="Q2" s="37"/>
-      <c r="R2" s="38"/>
-      <c r="S2" s="33" t="s">
+      <c r="P2" s="32"/>
+      <c r="Q2" s="32"/>
+      <c r="R2" s="33"/>
+      <c r="S2" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="34"/>
+      <c r="T2" s="29"/>
       <c r="U2" s="10" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" s="2" customFormat="1">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -16506,9 +16459,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21">
       <c r="A4" s="5" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B4" s="1">
         <v>1875</v>
@@ -16568,12 +16521,12 @@
         <v>5</v>
       </c>
       <c r="U4" s="12">
-        <v>0.21299999999999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+        <v>0.24299999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21">
       <c r="A5" s="5" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B5" s="1">
         <v>1875</v>
@@ -16636,9 +16589,9 @@
         <v>8.5000000000000006E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21">
       <c r="A6" s="5" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B6" s="1">
         <v>1875</v>
@@ -16701,9 +16654,9 @@
         <v>6.8000000000000005E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21">
       <c r="A7" s="5" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B7" s="1">
         <v>1875</v>
@@ -16766,9 +16719,9 @@
         <v>9.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21">
       <c r="A8" s="5" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B8" s="1">
         <v>1875</v>
@@ -16831,9 +16784,9 @@
         <v>8.6999999999999994E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21">
       <c r="A9" s="5" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B9" s="1">
         <v>1875</v>
@@ -16896,9 +16849,9 @@
         <v>0.108</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21">
       <c r="A10" s="5" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B10" s="1">
         <v>1875</v>
@@ -16961,9 +16914,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21">
       <c r="A11" s="5" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B11" s="1">
         <v>1875</v>
@@ -17026,9 +16979,9 @@
         <v>3.2000000000000001E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:21">
       <c r="A12" s="5" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B12" s="1">
         <v>1875</v>
@@ -17091,9 +17044,9 @@
         <v>2.7E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21">
       <c r="A13" s="5" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B13" s="1">
         <v>1875</v>
@@ -17156,9 +17109,9 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:21">
       <c r="A14" s="5" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B14" s="1">
         <v>1875</v>
@@ -17221,9 +17174,9 @@
         <v>4.4999999999999998E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21">
       <c r="A15" s="5" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B15" s="1">
         <v>1875</v>
@@ -17286,9 +17239,9 @@
         <v>3.1E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21">
       <c r="A16" s="5" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B16" s="1">
         <v>1875</v>
@@ -17351,9 +17304,9 @@
         <v>0.106</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:21">
       <c r="A17" s="5" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B17" s="1">
         <v>1875</v>
@@ -17416,9 +17369,9 @@
         <v>0.27400000000000002</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:21">
       <c r="A18" s="5" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B18" s="1">
         <v>1875</v>
@@ -17481,9 +17434,9 @@
         <v>0.23799999999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:21">
       <c r="A19" s="5" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B19" s="1">
         <v>1875</v>
@@ -17546,9 +17499,9 @@
         <v>0.16400000000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:21">
       <c r="A20" s="5" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B20" s="1">
         <v>1875</v>
@@ -17611,9 +17564,9 @@
         <v>0.223</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:21">
       <c r="A21" s="5" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B21" s="1">
         <v>1875</v>
@@ -17676,9 +17629,9 @@
         <v>0.185</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:21">
       <c r="A22" s="5" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B22" s="1">
         <v>1875</v>
@@ -17741,9 +17694,9 @@
         <v>0.19800000000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:21">
       <c r="A23" s="5" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B23" s="1">
         <v>1875</v>
@@ -17806,9 +17759,9 @@
         <v>0.14899999999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:21">
       <c r="A24" s="5" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B24" s="1">
         <v>1875</v>
@@ -17871,9 +17824,9 @@
         <v>3.1E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:21">
       <c r="A25" s="5" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B25" s="1">
         <v>1875</v>
@@ -17936,9 +17889,9 @@
         <v>0.158</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:21">
       <c r="A26" s="5" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B26" s="1">
         <v>1875</v>
@@ -18001,9 +17954,9 @@
         <v>0.11799999999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:21">
       <c r="A27" s="5" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B27" s="1">
         <v>1875</v>
@@ -18051,7 +18004,7 @@
         <v>2</v>
       </c>
       <c r="Q27" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="R27" s="6">
         <v>4</v>
@@ -18066,9 +18019,9 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:21">
       <c r="A28" s="5" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B28" s="1">
         <v>1875</v>
@@ -18116,7 +18069,7 @@
         <v>0</v>
       </c>
       <c r="Q28" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="R28" s="6">
         <v>2</v>
@@ -18131,9 +18084,9 @@
         <v>6.4000000000000001E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:21">
       <c r="A29" s="5" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B29" s="1">
         <v>1875</v>
@@ -18196,9 +18149,9 @@
         <v>3.4000000000000002E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:21">
       <c r="A30" s="5" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B30" s="1">
         <v>1875</v>
@@ -18261,9 +18214,9 @@
         <v>0.16200000000000001</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:21">
       <c r="A31" s="5" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B31" s="1">
         <v>1875</v>
@@ -18326,9 +18279,9 @@
         <v>8.5000000000000006E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:21">
       <c r="A32" s="5" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B32" s="1">
         <v>1875</v>
@@ -18391,9 +18344,9 @@
         <v>7.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:21">
       <c r="A33" s="5" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B33" s="1">
         <v>1875</v>
@@ -18456,9 +18409,9 @@
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:21">
       <c r="A34" s="7" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B34" s="8">
         <v>1875</v>
@@ -18521,12 +18474,12 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:21">
       <c r="A35" s="14"/>
       <c r="B35" s="15"/>
       <c r="C35" s="15"/>
       <c r="D35" s="16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E35" s="15">
         <v>29.632000000000001</v>
@@ -18558,11 +18511,15 @@
       <c r="N35" s="16">
         <v>93.5</v>
       </c>
-      <c r="O35" s="14"/>
+      <c r="O35" s="14" t="s">
+        <v>21</v>
+      </c>
       <c r="P35" s="15">
         <v>2.7</v>
       </c>
-      <c r="Q35" s="15"/>
+      <c r="Q35" s="15" t="s">
+        <v>21</v>
+      </c>
       <c r="R35" s="16">
         <v>3.7</v>
       </c>
@@ -18595,60 +18552,60 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A2:U35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K35" sqref="K35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="C35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="20" width="8.6640625" style="1" customWidth="1"/>
-    <col min="21" max="21" width="10.6640625" style="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.1640625" style="1"/>
+    <col min="3" max="3" width="10.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="20" width="8.7109375" style="1" customWidth="1"/>
+    <col min="21" max="21" width="10.7109375" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="27"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="35" t="s">
+    <row r="2" spans="1:21" s="2" customFormat="1">
+      <c r="A2" s="23"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="36"/>
-      <c r="G2" s="37" t="s">
-        <v>40</v>
-      </c>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="33" t="s">
+      <c r="F2" s="31"/>
+      <c r="G2" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="34"/>
-      <c r="M2" s="33" t="s">
+      <c r="L2" s="29"/>
+      <c r="M2" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="34"/>
-      <c r="O2" s="37" t="s">
+      <c r="N2" s="29"/>
+      <c r="O2" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="37"/>
-      <c r="Q2" s="37"/>
-      <c r="R2" s="38"/>
-      <c r="S2" s="33" t="s">
+      <c r="P2" s="32"/>
+      <c r="Q2" s="32"/>
+      <c r="R2" s="33"/>
+      <c r="S2" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="34"/>
+      <c r="T2" s="29"/>
       <c r="U2" s="10" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" s="2" customFormat="1">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -18713,9 +18670,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21">
       <c r="A4" s="5" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B4" s="1">
         <v>1875</v>
@@ -18759,8 +18716,8 @@
       <c r="O4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="P4" s="20">
-        <v>43987</v>
+      <c r="P4" s="18" t="s">
+        <v>46</v>
       </c>
       <c r="Q4" s="1" t="s">
         <v>31</v>
@@ -18778,9 +18735,9 @@
         <v>0.20699999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21">
       <c r="A5" s="5" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B5" s="1">
         <v>1875</v>
@@ -18843,9 +18800,9 @@
         <v>0.17499999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21">
       <c r="A6" s="5" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B6" s="1">
         <v>1875</v>
@@ -18908,9 +18865,9 @@
         <v>0.378</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21">
       <c r="A7" s="5" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B7" s="1">
         <v>1875</v>
@@ -18973,9 +18930,9 @@
         <v>0.27800000000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21">
       <c r="A8" s="5" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B8" s="1">
         <v>1875</v>
@@ -19025,8 +18982,8 @@
       <c r="Q8" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="R8" s="21" t="s">
-        <v>55</v>
+      <c r="R8" s="19" t="s">
+        <v>52</v>
       </c>
       <c r="S8" s="1">
         <v>7</v>
@@ -19038,9 +18995,9 @@
         <v>8.5000000000000006E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21">
       <c r="A9" s="5" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B9" s="1">
         <v>1875</v>
@@ -19103,9 +19060,9 @@
         <v>0.11600000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21">
       <c r="A10" s="5" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B10" s="1">
         <v>1875</v>
@@ -19168,9 +19125,9 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21">
       <c r="A11" s="5" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B11" s="1">
         <v>1875</v>
@@ -19220,8 +19177,8 @@
       <c r="Q11" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="R11" s="21" t="s">
-        <v>64</v>
+      <c r="R11" s="19" t="s">
+        <v>59</v>
       </c>
       <c r="S11" s="1">
         <v>2</v>
@@ -19233,9 +19190,9 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:21">
       <c r="A12" s="5" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B12" s="1">
         <v>1875</v>
@@ -19298,9 +19255,9 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21">
       <c r="A13" s="5" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B13" s="1">
         <v>1875</v>
@@ -19363,9 +19320,9 @@
         <v>7.5999999999999998E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:21">
       <c r="A14" s="5" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B14" s="1">
         <v>1875</v>
@@ -19415,8 +19372,8 @@
       <c r="Q14" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="R14" s="21" t="s">
-        <v>50</v>
+      <c r="R14" s="19" t="s">
+        <v>47</v>
       </c>
       <c r="S14" s="1">
         <v>9</v>
@@ -19428,9 +19385,9 @@
         <v>8.5000000000000006E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21">
       <c r="A15" s="5" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B15" s="1">
         <v>1875</v>
@@ -19493,9 +19450,9 @@
         <v>0.16400000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21">
       <c r="A16" s="5" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B16" s="1">
         <v>1875</v>
@@ -19545,8 +19502,8 @@
       <c r="Q16" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="R16" s="21" t="s">
-        <v>55</v>
+      <c r="R16" s="19" t="s">
+        <v>52</v>
       </c>
       <c r="S16" s="1">
         <v>10</v>
@@ -19558,9 +19515,9 @@
         <v>0.14499999999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:21">
       <c r="A17" s="5" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B17" s="1">
         <v>1875</v>
@@ -19623,9 +19580,9 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:21">
       <c r="A18" s="5" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B18" s="1">
         <v>1875</v>
@@ -19669,8 +19626,8 @@
       <c r="O18" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="P18" s="19" t="s">
-        <v>51</v>
+      <c r="P18" s="18" t="s">
+        <v>48</v>
       </c>
       <c r="Q18" s="1" t="s">
         <v>30</v>
@@ -19688,9 +19645,9 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:21">
       <c r="A19" s="5" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B19" s="1">
         <v>1875</v>
@@ -19753,9 +19710,9 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:21">
       <c r="A20" s="5" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B20" s="1">
         <v>1875</v>
@@ -19818,9 +19775,9 @@
         <v>0.52500000000000002</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:21">
       <c r="A21" s="5" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B21" s="1">
         <v>1875</v>
@@ -19883,9 +19840,9 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:21">
       <c r="A22" s="5" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B22" s="1">
         <v>1875</v>
@@ -19935,8 +19892,8 @@
       <c r="Q22" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="R22" s="21" t="s">
-        <v>55</v>
+      <c r="R22" s="19" t="s">
+        <v>52</v>
       </c>
       <c r="S22" s="1">
         <v>10</v>
@@ -19948,9 +19905,9 @@
         <v>0.39200000000000002</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:21">
       <c r="A23" s="5" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B23" s="1">
         <v>1875</v>
@@ -20013,9 +19970,9 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:21">
       <c r="A24" s="5" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B24" s="1">
         <v>1875</v>
@@ -20063,7 +20020,7 @@
         <v>0.5</v>
       </c>
       <c r="Q24" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="R24" s="6">
         <v>0.5</v>
@@ -20078,9 +20035,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:21">
       <c r="A25" s="5" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B25" s="1">
         <v>1875</v>
@@ -20130,8 +20087,8 @@
       <c r="Q25" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="R25" s="21" t="s">
-        <v>51</v>
+      <c r="R25" s="19" t="s">
+        <v>48</v>
       </c>
       <c r="S25" s="1">
         <v>3</v>
@@ -20143,9 +20100,9 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:21">
       <c r="A26" s="5" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B26" s="1">
         <v>1875</v>
@@ -20166,7 +20123,7 @@
         <v>46.7</v>
       </c>
       <c r="H26" s="1">
-        <v>49.6</v>
+        <v>46.6</v>
       </c>
       <c r="I26" s="1">
         <v>34.5</v>
@@ -20189,8 +20146,8 @@
       <c r="O26" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="P26" s="19" t="s">
-        <v>51</v>
+      <c r="P26" s="18" t="s">
+        <v>48</v>
       </c>
       <c r="Q26" s="1" t="s">
         <v>23</v>
@@ -20208,9 +20165,9 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:21">
       <c r="A27" s="5" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B27" s="1">
         <v>1875</v>
@@ -20258,7 +20215,7 @@
         <v>0.5</v>
       </c>
       <c r="Q27" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="R27" s="6">
         <v>5</v>
@@ -20273,9 +20230,9 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:21">
       <c r="A28" s="5" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B28" s="1">
         <v>1875</v>
@@ -20338,9 +20295,9 @@
         <v>1.7000000000000001E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:21">
       <c r="A29" s="5" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B29" s="1">
         <v>1875</v>
@@ -20403,9 +20360,9 @@
         <v>9.8000000000000004E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:21">
       <c r="A30" s="5" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B30" s="1">
         <v>1875</v>
@@ -20455,8 +20412,8 @@
       <c r="Q30" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="R30" s="21" t="s">
-        <v>51</v>
+      <c r="R30" s="19" t="s">
+        <v>48</v>
       </c>
       <c r="S30" s="1">
         <v>8</v>
@@ -20468,9 +20425,9 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:21">
       <c r="A31" s="5" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B31" s="1">
         <v>1875</v>
@@ -20500,7 +20457,7 @@
         <v>53.3</v>
       </c>
       <c r="K31" s="1">
-        <v>268</v>
+        <v>0.26800000000000002</v>
       </c>
       <c r="L31" s="6">
         <v>0.245</v>
@@ -20518,7 +20475,7 @@
         <v>0.5</v>
       </c>
       <c r="Q31" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="R31" s="6">
         <v>0.5</v>
@@ -20533,9 +20490,9 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:21">
       <c r="A32" s="5" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B32" s="1">
         <v>1875</v>
@@ -20583,7 +20540,7 @@
         <v>0.5</v>
       </c>
       <c r="Q32" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="R32" s="6">
         <v>0.5</v>
@@ -20598,9 +20555,9 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:21">
       <c r="A33" s="5" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B33" s="1">
         <v>1875</v>
@@ -20663,9 +20620,9 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:21">
       <c r="A34" s="7" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B34" s="8">
         <v>1875</v>
@@ -20715,8 +20672,8 @@
       <c r="Q34" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="R34" s="22" t="s">
-        <v>51</v>
+      <c r="R34" s="20" t="s">
+        <v>48</v>
       </c>
       <c r="S34" s="8">
         <v>8</v>
@@ -20728,12 +20685,12 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:21">
       <c r="A35" s="14"/>
       <c r="B35" s="15"/>
       <c r="C35" s="15"/>
       <c r="D35" s="16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E35" s="15">
         <v>29.693000000000001</v>
@@ -20753,7 +20710,7 @@
       <c r="J35" s="16">
         <v>50.8</v>
       </c>
-      <c r="K35" s="32">
+      <c r="K35" s="27">
         <v>0.28000000000000003</v>
       </c>
       <c r="L35" s="16">
@@ -20765,12 +20722,16 @@
       <c r="N35" s="16">
         <v>91.3</v>
       </c>
-      <c r="O35" s="14"/>
+      <c r="O35" s="14" t="s">
+        <v>21</v>
+      </c>
       <c r="P35" s="15">
         <v>1.4</v>
       </c>
-      <c r="Q35" s="15"/>
-      <c r="R35" s="25">
+      <c r="Q35" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="R35" s="21">
         <v>1.7</v>
       </c>
       <c r="S35" s="14">
@@ -21178,51 +21139,17 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6CDBC23D-402E-4F44-8232-6AEE51A1124B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6CDBC23D-402E-4F44-8232-6AEE51A1124B}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6403F5C9-1B00-4BF6-8F71-838841DFF8FB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6403F5C9-1B00-4BF6-8F71-838841DFF8FB}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F7479136-432A-4232-96BC-6E80E453B006}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="09baef80-0d7a-4cab-b988-bb3d9fc0663b"/>
-    <ds:schemaRef ds:uri="502a79df-4f52-4757-ac2f-753e065f4c93"/>
-    <ds:schemaRef ds:uri="95a6d21c-7db0-4b7e-981f-b4f22b02b9d8"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F7479136-432A-4232-96BC-6E80E453B006}"/>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{288AFE23-D76F-49E2-9D33-AE4A825A8EC1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="09baef80-0d7a-4cab-b988-bb3d9fc0663b"/>
-    <ds:schemaRef ds:uri="502a79df-4f52-4757-ac2f-753e065f4c93"/>
-    <ds:schemaRef ds:uri="95a6d21c-7db0-4b7e-981f-b4f22b02b9d8"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{288AFE23-D76F-49E2-9D33-AE4A825A8EC1}"/>
 </file>
--- a/second-order/1875/January1875.xlsx
+++ b/second-order/1875/January1875.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26522"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://metoffice.sharepoint.com/sites/metofficelibraryarchiveteam/NMLAProjects/Second Order Stations/In Progress/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ed/Documents/GitHub/weather-rescue/second-order/1875/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="640" documentId="14_{095D3EB6-7C4E-4FB0-8180-2A640DC0EBE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D1B61107-E800-4792-BB4D-74A328177C6C}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93C85338-438B-7841-A64F-55BC7B4E36BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6870" yWindow="690" windowWidth="21600" windowHeight="11385" firstSheet="8" activeTab="8" xr2:uid="{F301734F-2AF4-4BAC-817B-B629B6303572}"/>
+    <workbookView xWindow="4360" yWindow="1740" windowWidth="21600" windowHeight="11380" firstSheet="2" activeTab="5" xr2:uid="{F301734F-2AF4-4BAC-817B-B629B6303572}"/>
   </bookViews>
   <sheets>
     <sheet name="Hawes" sheetId="1" r:id="rId1"/>
@@ -233,7 +233,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -558,9 +558,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -598,7 +598,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -704,7 +704,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -846,7 +846,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -858,22 +858,22 @@
   <dimension ref="A2:AA36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="H29" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="T36" sqref="T36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="20" width="8.7109375" style="1" customWidth="1"/>
-    <col min="21" max="21" width="10.7109375" style="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="3" width="10.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="20" width="8.6640625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="10.6640625" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="23"/>
       <c r="B2" s="24"/>
       <c r="C2" s="24"/>
@@ -910,7 +910,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -975,7 +975,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>19</v>
       </c>
@@ -1040,7 +1040,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>19</v>
       </c>
@@ -1105,7 +1105,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>19</v>
       </c>
@@ -1170,7 +1170,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>19</v>
       </c>
@@ -1235,7 +1235,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:21">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>19</v>
       </c>
@@ -1300,7 +1300,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>19</v>
       </c>
@@ -1365,7 +1365,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:21">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>19</v>
       </c>
@@ -1430,7 +1430,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:21">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>19</v>
       </c>
@@ -1495,7 +1495,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:21">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>19</v>
       </c>
@@ -1560,7 +1560,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>19</v>
       </c>
@@ -1625,7 +1625,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="14" spans="1:21">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>19</v>
       </c>
@@ -1690,7 +1690,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="15" spans="1:21">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>19</v>
       </c>
@@ -1755,7 +1755,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="16" spans="1:21">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>19</v>
       </c>
@@ -1820,7 +1820,7 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="17" spans="1:27">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>19</v>
       </c>
@@ -1885,7 +1885,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="18" spans="1:27">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>19</v>
       </c>
@@ -1950,7 +1950,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="19" spans="1:27">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>19</v>
       </c>
@@ -2015,7 +2015,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="20" spans="1:27">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>19</v>
       </c>
@@ -2084,7 +2084,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="21" spans="1:27">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>19</v>
       </c>
@@ -2149,7 +2149,7 @@
         <v>1.79</v>
       </c>
     </row>
-    <row r="22" spans="1:27">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>19</v>
       </c>
@@ -2214,7 +2214,7 @@
         <v>1.46</v>
       </c>
     </row>
-    <row r="23" spans="1:27">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>19</v>
       </c>
@@ -2279,7 +2279,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="24" spans="1:27">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>19</v>
       </c>
@@ -2344,7 +2344,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="25" spans="1:27">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>19</v>
       </c>
@@ -2409,7 +2409,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="26" spans="1:27">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>19</v>
       </c>
@@ -2474,7 +2474,7 @@
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:27">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>19</v>
       </c>
@@ -2539,7 +2539,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="28" spans="1:27">
+    <row r="28" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>19</v>
       </c>
@@ -2604,7 +2604,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="29" spans="1:27">
+    <row r="29" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>19</v>
       </c>
@@ -2669,7 +2669,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="30" spans="1:27">
+    <row r="30" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>19</v>
       </c>
@@ -2734,7 +2734,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="31" spans="1:27">
+    <row r="31" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>19</v>
       </c>
@@ -2799,7 +2799,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="32" spans="1:27">
+    <row r="32" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>19</v>
       </c>
@@ -2864,7 +2864,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="33" spans="1:21">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>19</v>
       </c>
@@ -2929,7 +2929,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="34" spans="1:21">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A34" s="7" t="s">
         <v>19</v>
       </c>
@@ -2994,7 +2994,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:21">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A35" s="14"/>
       <c r="B35" s="15"/>
       <c r="C35" s="15"/>
@@ -3053,7 +3053,7 @@
         <v>10.06</v>
       </c>
     </row>
-    <row r="36" spans="1:21">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.2">
       <c r="G36" s="18"/>
     </row>
   </sheetData>
@@ -3076,22 +3076,22 @@
   <dimension ref="A2:U35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="I30" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="N38" sqref="N38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="20" width="8.7109375" style="1" customWidth="1"/>
-    <col min="21" max="21" width="10.7109375" style="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="3" width="10.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="20" width="8.6640625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="10.6640625" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="23"/>
       <c r="B2" s="24"/>
       <c r="C2" s="24"/>
@@ -3128,7 +3128,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -3193,7 +3193,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>39</v>
       </c>
@@ -3258,7 +3258,7 @@
         <v>0.248</v>
       </c>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>39</v>
       </c>
@@ -3323,7 +3323,7 @@
         <v>0.17599999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>39</v>
       </c>
@@ -3388,7 +3388,7 @@
         <v>0.123</v>
       </c>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>39</v>
       </c>
@@ -3453,7 +3453,7 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:21">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>39</v>
       </c>
@@ -3518,7 +3518,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>39</v>
       </c>
@@ -3583,7 +3583,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:21">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>39</v>
       </c>
@@ -3648,7 +3648,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="11" spans="1:21">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>39</v>
       </c>
@@ -3713,7 +3713,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:21">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>39</v>
       </c>
@@ -3778,7 +3778,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>39</v>
       </c>
@@ -3843,7 +3843,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:21">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>39</v>
       </c>
@@ -3908,7 +3908,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:21">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>39</v>
       </c>
@@ -3973,7 +3973,7 @@
         <v>7.8E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:21">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>39</v>
       </c>
@@ -4038,7 +4038,7 @@
         <v>6.5000000000000002E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:21">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>39</v>
       </c>
@@ -4103,7 +4103,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="18" spans="1:21">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>39</v>
       </c>
@@ -4168,7 +4168,7 @@
         <v>4.2999999999999997E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:21">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>39</v>
       </c>
@@ -4233,7 +4233,7 @@
         <v>0.17599999999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:21">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>39</v>
       </c>
@@ -4298,7 +4298,7 @@
         <v>0.14499999999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:21">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>39</v>
       </c>
@@ -4363,7 +4363,7 @@
         <v>0.14599999999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:21">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>39</v>
       </c>
@@ -4428,7 +4428,7 @@
         <v>5.5E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:21">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>39</v>
       </c>
@@ -4493,7 +4493,7 @@
         <v>2.7E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:21">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>39</v>
       </c>
@@ -4558,7 +4558,7 @@
         <v>3.5999999999999997E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:21">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>39</v>
       </c>
@@ -4623,7 +4623,7 @@
         <v>7.6999999999999999E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:21">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>39</v>
       </c>
@@ -4688,7 +4688,7 @@
         <v>0.20599999999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:21">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>39</v>
       </c>
@@ -4753,7 +4753,7 @@
         <v>0.26400000000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:21">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>39</v>
       </c>
@@ -4818,7 +4818,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="29" spans="1:21">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>39</v>
       </c>
@@ -4883,7 +4883,7 @@
         <v>6.2E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:21">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>39</v>
       </c>
@@ -4948,7 +4948,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="31" spans="1:21">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>39</v>
       </c>
@@ -5013,7 +5013,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="32" spans="1:21">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>39</v>
       </c>
@@ -5078,7 +5078,7 @@
         <v>9.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:21">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>39</v>
       </c>
@@ -5143,7 +5143,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="34" spans="1:21">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A34" s="7" t="s">
         <v>39</v>
       </c>
@@ -5208,7 +5208,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="35" spans="1:21">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A35" s="14"/>
       <c r="B35" s="15"/>
       <c r="C35" s="15"/>
@@ -5287,22 +5287,22 @@
   <dimension ref="A2:U35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="I28" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="U36" sqref="U36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="20" width="8.7109375" style="1" customWidth="1"/>
-    <col min="21" max="21" width="10.7109375" style="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="3" width="10.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="20" width="8.6640625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="10.6640625" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="23"/>
       <c r="B2" s="24"/>
       <c r="C2" s="24"/>
@@ -5339,7 +5339,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -5404,7 +5404,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>44</v>
       </c>
@@ -5469,7 +5469,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>44</v>
       </c>
@@ -5534,7 +5534,7 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>44</v>
       </c>
@@ -5599,7 +5599,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>44</v>
       </c>
@@ -5664,7 +5664,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:21">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>44</v>
       </c>
@@ -5729,7 +5729,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>44</v>
       </c>
@@ -5794,7 +5794,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:21">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>44</v>
       </c>
@@ -5859,7 +5859,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:21">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>44</v>
       </c>
@@ -5924,7 +5924,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:21">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>44</v>
       </c>
@@ -5989,7 +5989,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>44</v>
       </c>
@@ -6054,7 +6054,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="14" spans="1:21">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>44</v>
       </c>
@@ -6119,7 +6119,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="15" spans="1:21">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>44</v>
       </c>
@@ -6184,7 +6184,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:21">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>44</v>
       </c>
@@ -6249,7 +6249,7 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="17" spans="1:21">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>44</v>
       </c>
@@ -6314,7 +6314,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="18" spans="1:21">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>44</v>
       </c>
@@ -6379,7 +6379,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="19" spans="1:21">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>44</v>
       </c>
@@ -6444,7 +6444,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="20" spans="1:21">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>44</v>
       </c>
@@ -6509,7 +6509,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="21" spans="1:21">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>44</v>
       </c>
@@ -6574,7 +6574,7 @@
         <v>0.45500000000000002</v>
       </c>
     </row>
-    <row r="22" spans="1:21">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>44</v>
       </c>
@@ -6639,7 +6639,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:21">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>44</v>
       </c>
@@ -6704,7 +6704,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:21">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>44</v>
       </c>
@@ -6769,7 +6769,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="25" spans="1:21">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>44</v>
       </c>
@@ -6834,7 +6834,7 @@
         <v>0.23499999999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:21">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>44</v>
       </c>
@@ -6899,7 +6899,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="27" spans="1:21">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>44</v>
       </c>
@@ -6964,7 +6964,7 @@
         <v>0.67</v>
       </c>
     </row>
-    <row r="28" spans="1:21">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>44</v>
       </c>
@@ -7029,7 +7029,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="29" spans="1:21">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>44</v>
       </c>
@@ -7094,7 +7094,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="30" spans="1:21">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>44</v>
       </c>
@@ -7159,7 +7159,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="31" spans="1:21">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>44</v>
       </c>
@@ -7224,7 +7224,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:21">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>44</v>
       </c>
@@ -7289,7 +7289,7 @@
         <v>0.255</v>
       </c>
     </row>
-    <row r="33" spans="1:21">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>44</v>
       </c>
@@ -7354,7 +7354,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="34" spans="1:21">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A34" s="7" t="s">
         <v>44</v>
       </c>
@@ -7419,7 +7419,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="35" spans="1:21">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A35" s="14"/>
       <c r="B35" s="15"/>
       <c r="C35" s="15"/>
@@ -7498,22 +7498,22 @@
   <dimension ref="A2:U35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="E30" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="L36" sqref="L36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="20" width="8.7109375" style="1" customWidth="1"/>
-    <col min="21" max="21" width="10.7109375" style="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="3" width="10.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="20" width="8.6640625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="10.6640625" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="23"/>
       <c r="B2" s="24"/>
       <c r="C2" s="24"/>
@@ -7550,7 +7550,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -7615,7 +7615,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>45</v>
       </c>
@@ -7680,7 +7680,7 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>45</v>
       </c>
@@ -7745,7 +7745,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>45</v>
       </c>
@@ -7810,7 +7810,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>45</v>
       </c>
@@ -7875,7 +7875,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="8" spans="1:21">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>45</v>
       </c>
@@ -7940,7 +7940,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>45</v>
       </c>
@@ -8005,7 +8005,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:21">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>45</v>
       </c>
@@ -8070,7 +8070,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:21">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>45</v>
       </c>
@@ -8135,7 +8135,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:21">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>45</v>
       </c>
@@ -8200,7 +8200,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>45</v>
       </c>
@@ -8265,7 +8265,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="14" spans="1:21">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>45</v>
       </c>
@@ -8330,7 +8330,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="15" spans="1:21">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>45</v>
       </c>
@@ -8395,7 +8395,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="16" spans="1:21">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>45</v>
       </c>
@@ -8460,7 +8460,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="17" spans="1:21">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>45</v>
       </c>
@@ -8525,7 +8525,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:21">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>45</v>
       </c>
@@ -8590,7 +8590,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="19" spans="1:21">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>45</v>
       </c>
@@ -8655,7 +8655,7 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="20" spans="1:21">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>45</v>
       </c>
@@ -8720,7 +8720,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="21" spans="1:21">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>45</v>
       </c>
@@ -8785,7 +8785,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="22" spans="1:21">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>45</v>
       </c>
@@ -8850,7 +8850,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="23" spans="1:21">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>45</v>
       </c>
@@ -8915,7 +8915,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="24" spans="1:21">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>45</v>
       </c>
@@ -8980,7 +8980,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="25" spans="1:21">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>45</v>
       </c>
@@ -9045,7 +9045,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="26" spans="1:21">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>45</v>
       </c>
@@ -9110,7 +9110,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="27" spans="1:21">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>45</v>
       </c>
@@ -9175,7 +9175,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="28" spans="1:21">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>45</v>
       </c>
@@ -9240,7 +9240,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="29" spans="1:21">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>45</v>
       </c>
@@ -9305,7 +9305,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="30" spans="1:21">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>45</v>
       </c>
@@ -9370,7 +9370,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="31" spans="1:21">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>45</v>
       </c>
@@ -9435,7 +9435,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="32" spans="1:21">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>45</v>
       </c>
@@ -9500,7 +9500,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="33" spans="1:21">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>45</v>
       </c>
@@ -9565,7 +9565,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="34" spans="1:21">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A34" s="7" t="s">
         <v>45</v>
       </c>
@@ -9630,7 +9630,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="35" spans="1:21">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A35" s="14"/>
       <c r="B35" s="15"/>
       <c r="C35" s="15"/>
@@ -9709,22 +9709,22 @@
   <dimension ref="A2:U35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="C28" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="Q36" sqref="Q36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="20" width="8.7109375" style="1" customWidth="1"/>
-    <col min="21" max="21" width="10.7109375" style="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="3" width="10.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="20" width="8.6640625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="10.6640625" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="23"/>
       <c r="B2" s="24"/>
       <c r="C2" s="24"/>
@@ -9761,7 +9761,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -9826,7 +9826,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>53</v>
       </c>
@@ -9891,7 +9891,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>53</v>
       </c>
@@ -9956,7 +9956,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>53</v>
       </c>
@@ -10021,7 +10021,7 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>53</v>
       </c>
@@ -10086,7 +10086,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="8" spans="1:21">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>53</v>
       </c>
@@ -10151,7 +10151,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>53</v>
       </c>
@@ -10216,7 +10216,7 @@
         <v>0.39</v>
       </c>
     </row>
-    <row r="10" spans="1:21">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>53</v>
       </c>
@@ -10281,7 +10281,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="11" spans="1:21">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>53</v>
       </c>
@@ -10346,7 +10346,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="12" spans="1:21">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>53</v>
       </c>
@@ -10411,7 +10411,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>53</v>
       </c>
@@ -10476,7 +10476,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="14" spans="1:21">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>53</v>
       </c>
@@ -10541,7 +10541,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="15" spans="1:21">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>53</v>
       </c>
@@ -10606,7 +10606,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="16" spans="1:21">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>53</v>
       </c>
@@ -10671,7 +10671,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="17" spans="1:21">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>53</v>
       </c>
@@ -10736,7 +10736,7 @@
         <v>0.77</v>
       </c>
     </row>
-    <row r="18" spans="1:21">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>53</v>
       </c>
@@ -10801,7 +10801,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="19" spans="1:21">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>53</v>
       </c>
@@ -10866,7 +10866,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="20" spans="1:21">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>53</v>
       </c>
@@ -10931,7 +10931,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="21" spans="1:21">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>53</v>
       </c>
@@ -10996,7 +10996,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="22" spans="1:21">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>53</v>
       </c>
@@ -11061,7 +11061,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="23" spans="1:21">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>53</v>
       </c>
@@ -11126,7 +11126,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="24" spans="1:21">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>53</v>
       </c>
@@ -11191,7 +11191,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="25" spans="1:21">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>53</v>
       </c>
@@ -11256,7 +11256,7 @@
         <v>0.52</v>
       </c>
     </row>
-    <row r="26" spans="1:21">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>53</v>
       </c>
@@ -11321,7 +11321,7 @@
         <v>0.78</v>
       </c>
     </row>
-    <row r="27" spans="1:21">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>53</v>
       </c>
@@ -11386,7 +11386,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="28" spans="1:21">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>53</v>
       </c>
@@ -11451,7 +11451,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="29" spans="1:21">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>53</v>
       </c>
@@ -11516,7 +11516,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="30" spans="1:21">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>53</v>
       </c>
@@ -11581,7 +11581,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="31" spans="1:21">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>53</v>
       </c>
@@ -11646,7 +11646,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="32" spans="1:21">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>53</v>
       </c>
@@ -11711,7 +11711,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="33" spans="1:21">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>53</v>
       </c>
@@ -11776,7 +11776,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="34" spans="1:21">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A34" s="7" t="s">
         <v>53</v>
       </c>
@@ -11841,7 +11841,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="35" spans="1:21">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A35" s="14"/>
       <c r="B35" s="15"/>
       <c r="C35" s="15"/>
@@ -11919,23 +11919,23 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A2:U35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="I25" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U36" sqref="U36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="20" width="8.7109375" style="1" customWidth="1"/>
-    <col min="21" max="21" width="10.7109375" style="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="3" width="10.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="20" width="8.6640625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="10.6640625" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="23"/>
       <c r="B2" s="24"/>
       <c r="C2" s="24"/>
@@ -11972,7 +11972,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -12037,7 +12037,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>54</v>
       </c>
@@ -12102,7 +12102,7 @@
         <v>0.52</v>
       </c>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>54</v>
       </c>
@@ -12167,7 +12167,7 @@
         <v>0.13400000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>54</v>
       </c>
@@ -12232,7 +12232,7 @@
         <v>6.4000000000000001E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>54</v>
       </c>
@@ -12297,7 +12297,7 @@
         <v>5.3999999999999999E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:21">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>54</v>
       </c>
@@ -12362,7 +12362,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>54</v>
       </c>
@@ -12427,7 +12427,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:21">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>54</v>
       </c>
@@ -12492,7 +12492,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:21">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>54</v>
       </c>
@@ -12557,7 +12557,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:21">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>54</v>
       </c>
@@ -12622,7 +12622,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>54</v>
       </c>
@@ -12687,7 +12687,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:21">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>54</v>
       </c>
@@ -12704,7 +12704,7 @@
         <v>29.831</v>
       </c>
       <c r="F14" s="6">
-        <v>28.875</v>
+        <v>29.875</v>
       </c>
       <c r="G14" s="1">
         <v>45.9</v>
@@ -12752,7 +12752,7 @@
         <v>0.113</v>
       </c>
     </row>
-    <row r="15" spans="1:21">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>54</v>
       </c>
@@ -12817,7 +12817,7 @@
         <v>3.4000000000000002E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:21">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>54</v>
       </c>
@@ -12882,7 +12882,7 @@
         <v>0.13400000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:21">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>54</v>
       </c>
@@ -12947,7 +12947,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:21">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>54</v>
       </c>
@@ -13012,7 +13012,7 @@
         <v>0.16500000000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:21">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>54</v>
       </c>
@@ -13077,7 +13077,7 @@
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:21">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>54</v>
       </c>
@@ -13142,7 +13142,7 @@
         <v>0.27500000000000002</v>
       </c>
     </row>
-    <row r="21" spans="1:21">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>54</v>
       </c>
@@ -13207,7 +13207,7 @@
         <v>3.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:21">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>54</v>
       </c>
@@ -13272,7 +13272,7 @@
         <v>3.3000000000000002E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:21">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>54</v>
       </c>
@@ -13337,7 +13337,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="24" spans="1:21">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>54</v>
       </c>
@@ -13402,7 +13402,7 @@
         <v>0.53</v>
       </c>
     </row>
-    <row r="25" spans="1:21">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>54</v>
       </c>
@@ -13467,7 +13467,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="26" spans="1:21">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>54</v>
       </c>
@@ -13532,7 +13532,7 @@
         <v>0.317</v>
       </c>
     </row>
-    <row r="27" spans="1:21">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>54</v>
       </c>
@@ -13597,7 +13597,7 @@
         <v>0.28299999999999997</v>
       </c>
     </row>
-    <row r="28" spans="1:21">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>54</v>
       </c>
@@ -13662,7 +13662,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:21">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>54</v>
       </c>
@@ -13727,7 +13727,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:21">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>54</v>
       </c>
@@ -13792,7 +13792,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:21">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>54</v>
       </c>
@@ -13857,7 +13857,7 @@
         <v>0.20499999999999999</v>
       </c>
     </row>
-    <row r="32" spans="1:21">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>54</v>
       </c>
@@ -13922,7 +13922,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="33" spans="1:21">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>54</v>
       </c>
@@ -13987,7 +13987,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="34" spans="1:21">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A34" s="7" t="s">
         <v>54</v>
       </c>
@@ -14052,7 +14052,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="35" spans="1:21">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A35" s="14"/>
       <c r="B35" s="15"/>
       <c r="C35" s="15"/>
@@ -14131,22 +14131,22 @@
   <dimension ref="A2:U35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="C26" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="U36" sqref="U36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="20" width="8.7109375" style="1" customWidth="1"/>
-    <col min="21" max="21" width="10.7109375" style="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="3" width="10.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="20" width="8.6640625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="10.6640625" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="23"/>
       <c r="B2" s="24"/>
       <c r="C2" s="24"/>
@@ -14183,7 +14183,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -14248,7 +14248,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>56</v>
       </c>
@@ -14313,7 +14313,7 @@
         <v>1.04</v>
       </c>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>56</v>
       </c>
@@ -14378,7 +14378,7 @@
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>56</v>
       </c>
@@ -14443,7 +14443,7 @@
         <v>0.81</v>
       </c>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>56</v>
       </c>
@@ -14508,7 +14508,7 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="8" spans="1:21">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>56</v>
       </c>
@@ -14573,7 +14573,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>56</v>
       </c>
@@ -14638,7 +14638,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="10" spans="1:21">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>56</v>
       </c>
@@ -14703,7 +14703,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="11" spans="1:21">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>56</v>
       </c>
@@ -14768,7 +14768,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="12" spans="1:21">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>56</v>
       </c>
@@ -14833,7 +14833,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>56</v>
       </c>
@@ -14898,7 +14898,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="14" spans="1:21">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>56</v>
       </c>
@@ -14963,7 +14963,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="15" spans="1:21">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>56</v>
       </c>
@@ -15028,7 +15028,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="16" spans="1:21">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>56</v>
       </c>
@@ -15093,7 +15093,7 @@
         <v>2.0099999999999998</v>
       </c>
     </row>
-    <row r="17" spans="1:21">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>56</v>
       </c>
@@ -15158,7 +15158,7 @@
         <v>1.38</v>
       </c>
     </row>
-    <row r="18" spans="1:21">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>56</v>
       </c>
@@ -15223,7 +15223,7 @@
         <v>0.39</v>
       </c>
     </row>
-    <row r="19" spans="1:21">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>56</v>
       </c>
@@ -15288,7 +15288,7 @@
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="20" spans="1:21">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>56</v>
       </c>
@@ -15353,7 +15353,7 @@
         <v>1.27</v>
       </c>
     </row>
-    <row r="21" spans="1:21">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>56</v>
       </c>
@@ -15418,7 +15418,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="22" spans="1:21">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>56</v>
       </c>
@@ -15483,7 +15483,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="23" spans="1:21">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>56</v>
       </c>
@@ -15548,7 +15548,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="24" spans="1:21">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>56</v>
       </c>
@@ -15613,7 +15613,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="25" spans="1:21">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>56</v>
       </c>
@@ -15678,7 +15678,7 @@
         <v>0.52</v>
       </c>
     </row>
-    <row r="26" spans="1:21">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>56</v>
       </c>
@@ -15743,7 +15743,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="27" spans="1:21">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>56</v>
       </c>
@@ -15808,7 +15808,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="28" spans="1:21">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>56</v>
       </c>
@@ -15873,7 +15873,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="29" spans="1:21">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>56</v>
       </c>
@@ -15938,7 +15938,7 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="30" spans="1:21">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>56</v>
       </c>
@@ -16003,7 +16003,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="31" spans="1:21">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>56</v>
       </c>
@@ -16068,7 +16068,7 @@
         <v>0.51</v>
       </c>
     </row>
-    <row r="32" spans="1:21">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>56</v>
       </c>
@@ -16133,7 +16133,7 @@
         <v>1.46</v>
       </c>
     </row>
-    <row r="33" spans="1:21">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>56</v>
       </c>
@@ -16198,7 +16198,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="34" spans="1:21">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A34" s="7" t="s">
         <v>56</v>
       </c>
@@ -16263,7 +16263,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="35" spans="1:21">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A35" s="14"/>
       <c r="B35" s="15"/>
       <c r="C35" s="15"/>
@@ -16342,22 +16342,22 @@
   <dimension ref="A2:U35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="N27" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="P36" sqref="P36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="20" width="8.7109375" style="1" customWidth="1"/>
-    <col min="21" max="21" width="10.7109375" style="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="3" width="10.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="20" width="8.6640625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="10.6640625" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="23"/>
       <c r="B2" s="24"/>
       <c r="C2" s="24"/>
@@ -16394,7 +16394,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -16459,7 +16459,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>57</v>
       </c>
@@ -16524,7 +16524,7 @@
         <v>0.24299999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>57</v>
       </c>
@@ -16589,7 +16589,7 @@
         <v>8.5000000000000006E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>57</v>
       </c>
@@ -16654,7 +16654,7 @@
         <v>6.8000000000000005E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>57</v>
       </c>
@@ -16719,7 +16719,7 @@
         <v>9.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:21">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>57</v>
       </c>
@@ -16784,7 +16784,7 @@
         <v>8.6999999999999994E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>57</v>
       </c>
@@ -16849,7 +16849,7 @@
         <v>0.108</v>
       </c>
     </row>
-    <row r="10" spans="1:21">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>57</v>
       </c>
@@ -16914,7 +16914,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:21">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>57</v>
       </c>
@@ -16979,7 +16979,7 @@
         <v>3.2000000000000001E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:21">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>57</v>
       </c>
@@ -17044,7 +17044,7 @@
         <v>2.7E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>57</v>
       </c>
@@ -17109,7 +17109,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:21">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>57</v>
       </c>
@@ -17174,7 +17174,7 @@
         <v>4.4999999999999998E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:21">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>57</v>
       </c>
@@ -17239,7 +17239,7 @@
         <v>3.1E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:21">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>57</v>
       </c>
@@ -17304,7 +17304,7 @@
         <v>0.106</v>
       </c>
     </row>
-    <row r="17" spans="1:21">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>57</v>
       </c>
@@ -17369,7 +17369,7 @@
         <v>0.27400000000000002</v>
       </c>
     </row>
-    <row r="18" spans="1:21">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>57</v>
       </c>
@@ -17434,7 +17434,7 @@
         <v>0.23799999999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:21">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>57</v>
       </c>
@@ -17499,7 +17499,7 @@
         <v>0.16400000000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:21">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>57</v>
       </c>
@@ -17564,7 +17564,7 @@
         <v>0.223</v>
       </c>
     </row>
-    <row r="21" spans="1:21">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>57</v>
       </c>
@@ -17629,7 +17629,7 @@
         <v>0.185</v>
       </c>
     </row>
-    <row r="22" spans="1:21">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>57</v>
       </c>
@@ -17694,7 +17694,7 @@
         <v>0.19800000000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:21">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>57</v>
       </c>
@@ -17759,7 +17759,7 @@
         <v>0.14899999999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:21">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>57</v>
       </c>
@@ -17824,7 +17824,7 @@
         <v>3.1E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:21">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>57</v>
       </c>
@@ -17889,7 +17889,7 @@
         <v>0.158</v>
       </c>
     </row>
-    <row r="26" spans="1:21">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>57</v>
       </c>
@@ -17954,7 +17954,7 @@
         <v>0.11799999999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:21">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>57</v>
       </c>
@@ -18019,7 +18019,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="28" spans="1:21">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>57</v>
       </c>
@@ -18084,7 +18084,7 @@
         <v>6.4000000000000001E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:21">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>57</v>
       </c>
@@ -18149,7 +18149,7 @@
         <v>3.4000000000000002E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:21">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>57</v>
       </c>
@@ -18214,7 +18214,7 @@
         <v>0.16200000000000001</v>
       </c>
     </row>
-    <row r="31" spans="1:21">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>57</v>
       </c>
@@ -18279,7 +18279,7 @@
         <v>8.5000000000000006E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:21">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>57</v>
       </c>
@@ -18344,7 +18344,7 @@
         <v>7.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:21">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>57</v>
       </c>
@@ -18409,7 +18409,7 @@
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:21">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A34" s="7" t="s">
         <v>57</v>
       </c>
@@ -18474,7 +18474,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:21">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A35" s="14"/>
       <c r="B35" s="15"/>
       <c r="C35" s="15"/>
@@ -18552,23 +18552,23 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A2:U35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="C35" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="20" width="8.7109375" style="1" customWidth="1"/>
-    <col min="21" max="21" width="10.7109375" style="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="3" width="10.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="20" width="8.6640625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="10.6640625" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="23"/>
       <c r="B2" s="24"/>
       <c r="C2" s="24"/>
@@ -18605,7 +18605,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -18670,7 +18670,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>58</v>
       </c>
@@ -18735,7 +18735,7 @@
         <v>0.20699999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>58</v>
       </c>
@@ -18800,7 +18800,7 @@
         <v>0.17499999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>58</v>
       </c>
@@ -18865,7 +18865,7 @@
         <v>0.378</v>
       </c>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>58</v>
       </c>
@@ -18930,7 +18930,7 @@
         <v>0.27800000000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:21">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>58</v>
       </c>
@@ -18995,7 +18995,7 @@
         <v>8.5000000000000006E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>58</v>
       </c>
@@ -19060,7 +19060,7 @@
         <v>0.11600000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:21">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>58</v>
       </c>
@@ -19125,7 +19125,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="11" spans="1:21">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>58</v>
       </c>
@@ -19190,7 +19190,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="12" spans="1:21">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>58</v>
       </c>
@@ -19255,7 +19255,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>58</v>
       </c>
@@ -19320,7 +19320,7 @@
         <v>7.5999999999999998E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:21">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>58</v>
       </c>
@@ -19385,7 +19385,7 @@
         <v>8.5000000000000006E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:21">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>58</v>
       </c>
@@ -19450,7 +19450,7 @@
         <v>0.16400000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:21">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>58</v>
       </c>
@@ -19515,7 +19515,7 @@
         <v>0.14499999999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:21">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>58</v>
       </c>
@@ -19580,7 +19580,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="18" spans="1:21">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>58</v>
       </c>
@@ -19645,7 +19645,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="19" spans="1:21">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>58</v>
       </c>
@@ -19710,7 +19710,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="20" spans="1:21">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>58</v>
       </c>
@@ -19775,7 +19775,7 @@
         <v>0.52500000000000002</v>
       </c>
     </row>
-    <row r="21" spans="1:21">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>58</v>
       </c>
@@ -19840,7 +19840,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="22" spans="1:21">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>58</v>
       </c>
@@ -19905,7 +19905,7 @@
         <v>0.39200000000000002</v>
       </c>
     </row>
-    <row r="23" spans="1:21">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>58</v>
       </c>
@@ -19970,7 +19970,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="24" spans="1:21">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>58</v>
       </c>
@@ -20035,7 +20035,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:21">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>58</v>
       </c>
@@ -20100,7 +20100,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="26" spans="1:21">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>58</v>
       </c>
@@ -20165,7 +20165,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="27" spans="1:21">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>58</v>
       </c>
@@ -20230,7 +20230,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="28" spans="1:21">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>58</v>
       </c>
@@ -20295,7 +20295,7 @@
         <v>1.7000000000000001E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:21">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>58</v>
       </c>
@@ -20360,7 +20360,7 @@
         <v>9.8000000000000004E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:21">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>58</v>
       </c>
@@ -20425,7 +20425,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="31" spans="1:21">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>58</v>
       </c>
@@ -20490,7 +20490,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="32" spans="1:21">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>58</v>
       </c>
@@ -20555,7 +20555,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="33" spans="1:21">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>58</v>
       </c>
@@ -20620,7 +20620,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:21">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A34" s="7" t="s">
         <v>58</v>
       </c>
@@ -20685,7 +20685,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:21">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A35" s="14"/>
       <c r="B35" s="15"/>
       <c r="C35" s="15"/>
@@ -20759,15 +20759,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
   <Receiver>
@@ -20817,7 +20808,36 @@
 </spe:Receivers>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Preview xmlns="09baef80-0d7a-4cab-b988-bb3d9fc0663b">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Preview>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_dlc_DocId xmlns="502a79df-4f52-4757-ac2f-753e065f4c93">H7Q62YT2XCZT-908671883-27391</_dlc_DocId>
+    <_dlc_DocIdUrl xmlns="502a79df-4f52-4757-ac2f-753e065f4c93">
+      <Url>https://metoffice.sharepoint.com/sites/metofficelibraryarchiveteam/_layouts/15/DocIdRedir.aspx?ID=H7Q62YT2XCZT-908671883-27391</Url>
+      <Description>H7Q62YT2XCZT-908671883-27391</Description>
+    </_dlc_DocIdUrl>
+    <_Flow_SignoffStatus xmlns="09baef80-0d7a-4cab-b988-bb3d9fc0663b" xsi:nil="true"/>
+    <TaxCatchAll xmlns="95a6d21c-7db0-4b7e-981f-b4f22b02b9d8" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100005F0ACF65EC5C4F8622AE277C35A390" ma:contentTypeVersion="20" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="a11f18feb37c278a512788b2e5a06b2f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="09baef80-0d7a-4cab-b988-bb3d9fc0663b" xmlns:ns3="502a79df-4f52-4757-ac2f-753e065f4c93" xmlns:ns4="95a6d21c-7db0-4b7e-981f-b4f22b02b9d8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d97308c79b2bb5835a55e257627f43a5" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -21118,38 +21138,52 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Preview xmlns="09baef80-0d7a-4cab-b988-bb3d9fc0663b">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Preview>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_dlc_DocId xmlns="502a79df-4f52-4757-ac2f-753e065f4c93">H7Q62YT2XCZT-908671883-27391</_dlc_DocId>
-    <_dlc_DocIdUrl xmlns="502a79df-4f52-4757-ac2f-753e065f4c93">
-      <Url>https://metoffice.sharepoint.com/sites/metofficelibraryarchiveteam/_layouts/15/DocIdRedir.aspx?ID=H7Q62YT2XCZT-908671883-27391</Url>
-      <Description>H7Q62YT2XCZT-908671883-27391</Description>
-    </_dlc_DocIdUrl>
-    <_Flow_SignoffStatus xmlns="09baef80-0d7a-4cab-b988-bb3d9fc0663b" xsi:nil="true"/>
-    <TaxCatchAll xmlns="95a6d21c-7db0-4b7e-981f-b4f22b02b9d8" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6CDBC23D-402E-4F44-8232-6AEE51A1124B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6403F5C9-1B00-4BF6-8F71-838841DFF8FB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6403F5C9-1B00-4BF6-8F71-838841DFF8FB}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6CDBC23D-402E-4F44-8232-6AEE51A1124B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F7479136-432A-4232-96BC-6E80E453B006}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{288AFE23-D76F-49E2-9D33-AE4A825A8EC1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="09baef80-0d7a-4cab-b988-bb3d9fc0663b"/>
+    <ds:schemaRef ds:uri="502a79df-4f52-4757-ac2f-753e065f4c93"/>
+    <ds:schemaRef ds:uri="95a6d21c-7db0-4b7e-981f-b4f22b02b9d8"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{288AFE23-D76F-49E2-9D33-AE4A825A8EC1}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F7479136-432A-4232-96BC-6E80E453B006}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="09baef80-0d7a-4cab-b988-bb3d9fc0663b"/>
+    <ds:schemaRef ds:uri="502a79df-4f52-4757-ac2f-753e065f4c93"/>
+    <ds:schemaRef ds:uri="95a6d21c-7db0-4b7e-981f-b4f22b02b9d8"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>